--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/4. XIII-В-28-2-500-4 (Фляга  0,5 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/4. XIII-В-28-2-500-4 (Фляга  0,5 л.).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>№Поз</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Начальник УРФ                                            А.Д. Гавриленко</t>
+  </si>
+  <si>
+    <t>стоит</t>
   </si>
 </sst>
 </file>
@@ -915,18 +918,47 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -940,47 +972,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1291,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1312,29 +1315,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="32"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1399,7 +1402,7 @@
       <c r="B5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="86" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="47"/>
@@ -1425,7 +1428,7 @@
       <c r="B6" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="88" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="9"/>
@@ -1451,7 +1454,7 @@
       <c r="B7" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="88" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="9"/>
@@ -1477,7 +1480,7 @@
       <c r="B8" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="88" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="9"/>
@@ -1503,7 +1506,7 @@
       <c r="B9" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="88" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="9"/>
@@ -1529,7 +1532,7 @@
       <c r="B10" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="88" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="9"/>
@@ -1555,7 +1558,7 @@
       <c r="B11" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="88" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="9"/>
@@ -1584,7 +1587,7 @@
       <c r="B12" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="88" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="9"/>
@@ -1611,7 +1614,7 @@
       <c r="B13" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="88" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="9"/>
@@ -1639,7 +1642,7 @@
       <c r="B14" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="99" t="s">
+      <c r="C14" s="88" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="9"/>
@@ -1667,7 +1670,7 @@
       <c r="B15" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="88" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="9"/>
@@ -1693,7 +1696,7 @@
       <c r="B16" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="98"/>
+      <c r="C16" s="87"/>
       <c r="D16" s="9"/>
       <c r="E16" s="12"/>
       <c r="F16" s="22"/>
@@ -1775,15 +1778,15 @@
       <c r="B20" s="79"/>
       <c r="C20" s="81"/>
       <c r="D20" s="79"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103">
+      <c r="E20" s="92"/>
+      <c r="F20" s="92">
         <v>3695000</v>
       </c>
       <c r="G20" s="38">
         <f>F20/A$20</f>
         <v>0.21994047619047619</v>
       </c>
-      <c r="H20" s="109">
+      <c r="H20" s="98">
         <f>A20-F20</f>
         <v>13105000</v>
       </c>
@@ -1806,17 +1809,17 @@
       <c r="D21" s="80">
         <v>43508</v>
       </c>
-      <c r="E21" s="104">
+      <c r="E21" s="93">
         <v>695016</v>
       </c>
-      <c r="F21" s="104">
+      <c r="F21" s="93">
         <v>959308</v>
       </c>
       <c r="G21" s="38">
         <f>F21/A$20</f>
         <v>5.7101666666666669E-2</v>
       </c>
-      <c r="H21" s="110">
+      <c r="H21" s="99">
         <f t="shared" ref="H21:I23" si="2">H20-F21</f>
         <v>12145692</v>
       </c>
@@ -1839,17 +1842,17 @@
       <c r="D22" s="10">
         <v>43570</v>
       </c>
-      <c r="E22" s="105">
+      <c r="E22" s="94">
         <v>1384078</v>
       </c>
-      <c r="F22" s="105">
+      <c r="F22" s="94">
         <v>1620721</v>
       </c>
       <c r="G22" s="38">
         <f>F22/A$20</f>
         <v>9.6471488095238089E-2</v>
       </c>
-      <c r="H22" s="110">
+      <c r="H22" s="99">
         <f t="shared" si="2"/>
         <v>10524971</v>
       </c>
@@ -1872,17 +1875,17 @@
       <c r="D23" s="10">
         <v>43619</v>
       </c>
-      <c r="E23" s="106">
+      <c r="E23" s="95">
         <v>903168</v>
       </c>
-      <c r="F23" s="106">
+      <c r="F23" s="95">
         <v>1102368</v>
       </c>
       <c r="G23" s="38">
         <f>F23/A$20</f>
         <v>6.561714285714286E-2</v>
       </c>
-      <c r="H23" s="110">
+      <c r="H23" s="99">
         <f t="shared" si="2"/>
         <v>9422603</v>
       </c>
@@ -1905,17 +1908,17 @@
       <c r="D24" s="10">
         <v>43711</v>
       </c>
-      <c r="E24" s="105">
+      <c r="E24" s="94">
         <v>1311786</v>
       </c>
-      <c r="F24" s="105">
+      <c r="F24" s="94">
         <v>1468280</v>
       </c>
       <c r="G24" s="25">
         <f>F24/A$20</f>
         <v>8.7397619047619043E-2</v>
       </c>
-      <c r="H24" s="110">
+      <c r="H24" s="99">
         <f t="shared" ref="H24" si="3">H23-F24</f>
         <v>7954323</v>
       </c>
@@ -1929,14 +1932,33 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="14"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="27"/>
+      <c r="B25" s="10">
+        <v>43766</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="10">
+        <v>43770</v>
+      </c>
+      <c r="E25" s="94">
+        <v>530148</v>
+      </c>
+      <c r="F25" s="94">
+        <v>597582</v>
+      </c>
+      <c r="G25" s="25">
+        <f>F25/A$20</f>
+        <v>3.557035714285714E-2</v>
+      </c>
+      <c r="H25" s="99">
+        <f t="shared" ref="H25" si="5">H24-F25</f>
+        <v>7356741</v>
+      </c>
+      <c r="I25" s="82">
+        <f t="shared" ref="I25" si="6">I24-G25</f>
+        <v>0.43790125000000002</v>
+      </c>
       <c r="J25" s="72"/>
       <c r="K25" s="72"/>
       <c r="L25" s="1"/>
@@ -1946,10 +1968,10 @@
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="110"/>
+      <c r="H26" s="99"/>
       <c r="I26" s="27"/>
       <c r="J26" s="72"/>
       <c r="K26" s="72"/>
@@ -1960,10 +1982,10 @@
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="110"/>
+      <c r="H27" s="99"/>
       <c r="I27" s="27"/>
       <c r="J27" s="72"/>
       <c r="K27" s="72"/>
@@ -1974,11 +1996,11 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="22"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="105"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="94"/>
       <c r="G28" s="26"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="100"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="89"/>
       <c r="J28" s="72"/>
       <c r="K28" s="72"/>
       <c r="L28" s="1"/>
@@ -1988,11 +2010,11 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="22"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="105"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="94"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="100"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="89"/>
       <c r="J29" s="72"/>
       <c r="K29" s="72"/>
       <c r="L29" s="1"/>
@@ -2001,12 +2023,12 @@
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="108"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="97"/>
       <c r="G30" s="23"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="102"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="91"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2020,23 +2042,23 @@
       <c r="D31" s="19"/>
       <c r="E31" s="56">
         <f>SUM(E20:E30)</f>
-        <v>4294048</v>
+        <v>4824196</v>
       </c>
       <c r="F31" s="55">
         <f>SUM(F20:F30)</f>
-        <v>8845677</v>
+        <v>9443259</v>
       </c>
       <c r="G31" s="24">
         <f>SUM(G20:G30)</f>
-        <v>0.52652839285714281</v>
+        <v>0.56209874999999998</v>
       </c>
       <c r="H31" s="20">
         <f>A20-F31</f>
-        <v>7954323</v>
+        <v>7356741</v>
       </c>
       <c r="I31" s="29">
         <f>1-G31</f>
-        <v>0.47347160714285719</v>
+        <v>0.43790125000000002</v>
       </c>
       <c r="J31" s="74"/>
       <c r="K31" s="74"/>
@@ -2055,12 +2077,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="87" t="s">
+      <c r="A35" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="108"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2069,10 +2091,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="96" t="s">
+      <c r="A36" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="96"/>
+      <c r="B36" s="105"/>
       <c r="C36" s="11" t="s">
         <v>18</v>
       </c>
@@ -2087,18 +2109,18 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="94">
+      <c r="A37" s="103">
         <f>A20-F31</f>
-        <v>7954323</v>
-      </c>
-      <c r="B37" s="95"/>
+        <v>7356741</v>
+      </c>
+      <c r="B37" s="104"/>
       <c r="C37" s="78">
         <f>1-G31</f>
-        <v>0.47347160714285719</v>
+        <v>0.43790125000000002</v>
       </c>
       <c r="D37" s="21">
         <f>(C37/0.8)*100</f>
-        <v>59.183950892857141</v>
+        <v>54.737656250000001</v>
       </c>
       <c r="E37" s="85" t="s">
         <v>43</v>
@@ -2153,8 +2175,8 @@
       <c r="F41" s="60"/>
       <c r="G41" s="60"/>
       <c r="H41" s="60"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="93"/>
+      <c r="I41" s="101"/>
+      <c r="J41" s="102"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="61"/>
@@ -2248,9 +2270,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="89"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="90"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="109"/>
+      <c r="D51" s="110"/>
       <c r="E51" s="66"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2267,8 +2289,8 @@
       <c r="F52" s="60"/>
       <c r="G52" s="60"/>
       <c r="H52" s="60"/>
-      <c r="I52" s="92"/>
-      <c r="J52" s="93"/>
+      <c r="I52" s="101"/>
+      <c r="J52" s="102"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="61"/>
@@ -2279,8 +2301,8 @@
       <c r="F53" s="63"/>
       <c r="G53" s="63"/>
       <c r="H53" s="62"/>
-      <c r="I53" s="88"/>
-      <c r="J53" s="88"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="106"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="61"/>
@@ -2291,8 +2313,8 @@
       <c r="F54" s="64"/>
       <c r="G54" s="64"/>
       <c r="H54" s="64"/>
-      <c r="I54" s="88"/>
-      <c r="J54" s="88"/>
+      <c r="I54" s="106"/>
+      <c r="J54" s="106"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2305,18 +2327,23 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="92"/>
-      <c r="C60" s="93"/>
+      <c r="B60" s="101"/>
+      <c r="C60" s="102"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="92"/>
-      <c r="C67" s="93"/>
+      <c r="B67" s="101"/>
+      <c r="C67" s="102"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2324,11 +2351,6 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/4. XIII-В-28-2-500-4 (Фляга  0,5 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/4. XIII-В-28-2-500-4 (Фляга  0,5 л.).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>№Поз</t>
   </si>
@@ -961,6 +961,20 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -970,20 +984,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1295,7 +1295,7 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="H25" sqref="H25:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1315,29 +1315,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
       <c r="F2" s="32"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1783,7 +1783,7 @@
         <v>3695000</v>
       </c>
       <c r="G20" s="38">
-        <f>F20/A$20</f>
+        <f t="shared" ref="G20:G26" si="2">F20/A$20</f>
         <v>0.21994047619047619</v>
       </c>
       <c r="H20" s="98">
@@ -1816,15 +1816,15 @@
         <v>959308</v>
       </c>
       <c r="G21" s="38">
-        <f>F21/A$20</f>
+        <f t="shared" si="2"/>
         <v>5.7101666666666669E-2</v>
       </c>
       <c r="H21" s="99">
-        <f t="shared" ref="H21:I23" si="2">H20-F21</f>
+        <f t="shared" ref="H21:I23" si="3">H20-F21</f>
         <v>12145692</v>
       </c>
       <c r="I21" s="82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.7229578571428571</v>
       </c>
       <c r="J21" s="1"/>
@@ -1849,15 +1849,15 @@
         <v>1620721</v>
       </c>
       <c r="G22" s="38">
-        <f>F22/A$20</f>
+        <f t="shared" si="2"/>
         <v>9.6471488095238089E-2</v>
       </c>
       <c r="H22" s="99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10524971</v>
       </c>
       <c r="I22" s="82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.62648636904761901</v>
       </c>
       <c r="J22" s="72"/>
@@ -1882,15 +1882,15 @@
         <v>1102368</v>
       </c>
       <c r="G23" s="38">
-        <f>F23/A$20</f>
+        <f t="shared" si="2"/>
         <v>6.561714285714286E-2</v>
       </c>
       <c r="H23" s="99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9422603</v>
       </c>
       <c r="I23" s="82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.56086922619047619</v>
       </c>
       <c r="J23" s="72"/>
@@ -1915,15 +1915,15 @@
         <v>1468280</v>
       </c>
       <c r="G24" s="25">
-        <f>F24/A$20</f>
+        <f t="shared" si="2"/>
         <v>8.7397619047619043E-2</v>
       </c>
       <c r="H24" s="99">
-        <f t="shared" ref="H24" si="3">H23-F24</f>
+        <f t="shared" ref="H24" si="4">H23-F24</f>
         <v>7954323</v>
       </c>
       <c r="I24" s="82">
-        <f t="shared" ref="I24" si="4">I23-G24</f>
+        <f t="shared" ref="I24" si="5">I23-G24</f>
         <v>0.47347160714285713</v>
       </c>
       <c r="J24" s="72"/>
@@ -1948,15 +1948,15 @@
         <v>597582</v>
       </c>
       <c r="G25" s="25">
-        <f>F25/A$20</f>
+        <f t="shared" si="2"/>
         <v>3.557035714285714E-2</v>
       </c>
       <c r="H25" s="99">
-        <f t="shared" ref="H25" si="5">H24-F25</f>
+        <f t="shared" ref="H25" si="6">H24-F25</f>
         <v>7356741</v>
       </c>
       <c r="I25" s="82">
-        <f t="shared" ref="I25" si="6">I24-G25</f>
+        <f t="shared" ref="I25" si="7">I24-G25</f>
         <v>0.43790125000000002</v>
       </c>
       <c r="J25" s="72"/>
@@ -1965,14 +1965,33 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="14"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="27"/>
+      <c r="B26" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="10">
+        <v>43773</v>
+      </c>
+      <c r="D26" s="10">
+        <v>43782</v>
+      </c>
+      <c r="E26" s="94">
+        <v>559188</v>
+      </c>
+      <c r="F26" s="94">
+        <v>604753</v>
+      </c>
+      <c r="G26" s="25">
+        <f t="shared" si="2"/>
+        <v>3.599720238095238E-2</v>
+      </c>
+      <c r="H26" s="99">
+        <f t="shared" ref="H26" si="8">H25-F26</f>
+        <v>6751988</v>
+      </c>
+      <c r="I26" s="82">
+        <f t="shared" ref="I26" si="9">I25-G26</f>
+        <v>0.40190404761904763</v>
+      </c>
       <c r="J26" s="72"/>
       <c r="K26" s="72"/>
       <c r="L26" s="1"/>
@@ -2042,23 +2061,23 @@
       <c r="D31" s="19"/>
       <c r="E31" s="56">
         <f>SUM(E20:E30)</f>
-        <v>4824196</v>
+        <v>5383384</v>
       </c>
       <c r="F31" s="55">
         <f>SUM(F20:F30)</f>
-        <v>9443259</v>
+        <v>10048012</v>
       </c>
       <c r="G31" s="24">
         <f>SUM(G20:G30)</f>
-        <v>0.56209874999999998</v>
+        <v>0.59809595238095237</v>
       </c>
       <c r="H31" s="20">
         <f>A20-F31</f>
-        <v>7356741</v>
+        <v>6751988</v>
       </c>
       <c r="I31" s="29">
         <f>1-G31</f>
-        <v>0.43790125000000002</v>
+        <v>0.40190404761904763</v>
       </c>
       <c r="J31" s="74"/>
       <c r="K31" s="74"/>
@@ -2077,12 +2096,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="108" t="s">
+      <c r="A35" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="108"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="108"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2091,10 +2110,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="105" t="s">
+      <c r="A36" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="105"/>
+      <c r="B36" s="111"/>
       <c r="C36" s="11" t="s">
         <v>18</v>
       </c>
@@ -2109,18 +2128,18 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="103">
+      <c r="A37" s="109">
         <f>A20-F31</f>
-        <v>7356741</v>
-      </c>
-      <c r="B37" s="104"/>
+        <v>6751988</v>
+      </c>
+      <c r="B37" s="110"/>
       <c r="C37" s="78">
         <f>1-G31</f>
-        <v>0.43790125000000002</v>
+        <v>0.40190404761904763</v>
       </c>
       <c r="D37" s="21">
         <f>(C37/0.8)*100</f>
-        <v>54.737656250000001</v>
+        <v>50.238005952380945</v>
       </c>
       <c r="E37" s="85" t="s">
         <v>43</v>
@@ -2175,8 +2194,8 @@
       <c r="F41" s="60"/>
       <c r="G41" s="60"/>
       <c r="H41" s="60"/>
-      <c r="I41" s="101"/>
-      <c r="J41" s="102"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="108"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="61"/>
@@ -2270,9 +2289,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="109"/>
-      <c r="C51" s="109"/>
-      <c r="D51" s="110"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="105"/>
       <c r="E51" s="66"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2289,8 +2308,8 @@
       <c r="F52" s="60"/>
       <c r="G52" s="60"/>
       <c r="H52" s="60"/>
-      <c r="I52" s="101"/>
-      <c r="J52" s="102"/>
+      <c r="I52" s="107"/>
+      <c r="J52" s="108"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="61"/>
@@ -2301,8 +2320,8 @@
       <c r="F53" s="63"/>
       <c r="G53" s="63"/>
       <c r="H53" s="62"/>
-      <c r="I53" s="106"/>
-      <c r="J53" s="106"/>
+      <c r="I53" s="103"/>
+      <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="61"/>
@@ -2313,8 +2332,8 @@
       <c r="F54" s="64"/>
       <c r="G54" s="64"/>
       <c r="H54" s="64"/>
-      <c r="I54" s="106"/>
-      <c r="J54" s="106"/>
+      <c r="I54" s="103"/>
+      <c r="J54" s="103"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2327,23 +2346,18 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="101"/>
-      <c r="C60" s="102"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="108"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="101"/>
-      <c r="C67" s="102"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="108"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2351,6 +2365,11 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/4. XIII-В-28-2-500-4 (Фляга  0,5 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/4. XIII-В-28-2-500-4 (Фляга  0,5 л.).xlsx
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$37</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>№Поз</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>стоит</t>
+  </si>
+  <si>
+    <t>1512.2019</t>
   </si>
 </sst>
 </file>
@@ -705,7 +708,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -762,9 +765,6 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1295,7 +1295,7 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:I26"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1315,34 +1315,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="16.2" thickBot="1">
@@ -1353,82 +1353,82 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
       <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="35" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="44">
+      <c r="A5" s="43">
         <v>1</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46">
         <v>24</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47">
+      <c r="F5" s="45"/>
+      <c r="G5" s="46">
         <f>E5-F5</f>
         <v>24</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="75"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="74"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="48">
+      <c r="A6" s="47">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="87" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="9"/>
@@ -1440,21 +1440,21 @@
         <f t="shared" ref="G6:G16" si="0">E6-F6</f>
         <v>24</v>
       </c>
-      <c r="H6" s="53"/>
-      <c r="I6" s="50"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="49"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="76"/>
+      <c r="L6" s="75"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="48">
+      <c r="A7" s="47">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="87" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="9"/>
@@ -1466,21 +1466,21 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="50"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="76"/>
+      <c r="L7" s="75"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="48">
+      <c r="A8" s="47">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="87" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="9"/>
@@ -1492,21 +1492,21 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="50"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="76"/>
+      <c r="L8" s="75"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="48">
+      <c r="A9" s="47">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="87" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="9"/>
@@ -1518,21 +1518,21 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H9" s="54"/>
-      <c r="I9" s="51"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="76"/>
+      <c r="L9" s="75"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="48">
+      <c r="A10" s="47">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="87" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="9"/>
@@ -1544,77 +1544,77 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="50"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="76"/>
+      <c r="L10" s="75"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="48">
+      <c r="A11" s="47">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="87" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9">
         <v>60</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="29">
         <v>30</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="51"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="50"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="28"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="27"/>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A12" s="48">
+      <c r="A12" s="47">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="87" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
         <v>21</v>
       </c>
-      <c r="F12" s="31"/>
+      <c r="F12" s="30"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H12" s="54"/>
-      <c r="I12" s="51"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="50"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="28"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="27"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A13" s="48">
+      <c r="A13" s="47">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="87" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="9"/>
@@ -1626,51 +1626,51 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H13" s="54" t="s">
+      <c r="H13" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="51"/>
+      <c r="I13" s="50"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="76"/>
+      <c r="L13" s="75"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1">
-      <c r="A14" s="48">
+      <c r="A14" s="47">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="87" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
         <v>45</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="29">
         <v>10</v>
       </c>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="H14" s="54"/>
-      <c r="I14" s="51"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="50"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="76"/>
+      <c r="L14" s="75"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1">
-      <c r="A15" s="48">
+      <c r="A15" s="47">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="87" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="9"/>
@@ -1682,21 +1682,21 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="51"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="50"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="76"/>
+      <c r="L15" s="75"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A16" s="48">
+      <c r="A16" s="47">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="87"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="9"/>
       <c r="E16" s="12"/>
       <c r="F16" s="22"/>
@@ -1704,15 +1704,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="54"/>
-      <c r="I16" s="83"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="82"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="76"/>
+      <c r="L16" s="75"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="68"/>
-      <c r="B17" s="67"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="18" spans="1:12" ht="16.2" thickBot="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="68" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="13"/>
@@ -1734,96 +1734,96 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
     </row>
     <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="43" t="s">
+      <c r="I19" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="77">
+      <c r="A20" s="76">
         <f>E5*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92">
+      <c r="B20" s="78"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91">
         <v>3695000</v>
       </c>
-      <c r="G20" s="38">
-        <f t="shared" ref="G20:G26" si="2">F20/A$20</f>
+      <c r="G20" s="37">
+        <f t="shared" ref="G20:G27" si="2">F20/A$20</f>
         <v>0.21994047619047619</v>
       </c>
-      <c r="H20" s="98">
+      <c r="H20" s="97">
         <f>A20-F20</f>
         <v>13105000</v>
       </c>
-      <c r="I20" s="82">
+      <c r="I20" s="81">
         <f>1-G20</f>
         <v>0.78005952380952381</v>
       </c>
-      <c r="J20" s="72"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A21" s="48"/>
-      <c r="B21" s="80">
+      <c r="A21" s="47"/>
+      <c r="B21" s="79">
         <v>43500</v>
       </c>
-      <c r="C21" s="80">
+      <c r="C21" s="79">
         <v>43507</v>
       </c>
-      <c r="D21" s="80">
+      <c r="D21" s="79">
         <v>43508</v>
       </c>
-      <c r="E21" s="93">
+      <c r="E21" s="92">
         <v>695016</v>
       </c>
-      <c r="F21" s="93">
+      <c r="F21" s="92">
         <v>959308</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="37">
         <f t="shared" si="2"/>
         <v>5.7101666666666669E-2</v>
       </c>
-      <c r="H21" s="99">
+      <c r="H21" s="98">
         <f t="shared" ref="H21:I23" si="3">H20-F21</f>
         <v>12145692</v>
       </c>
-      <c r="I21" s="82">
+      <c r="I21" s="81">
         <f t="shared" si="3"/>
         <v>0.7229578571428571</v>
       </c>
@@ -1842,27 +1842,27 @@
       <c r="D22" s="10">
         <v>43570</v>
       </c>
-      <c r="E22" s="94">
+      <c r="E22" s="93">
         <v>1384078</v>
       </c>
-      <c r="F22" s="94">
+      <c r="F22" s="93">
         <v>1620721</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="37">
         <f t="shared" si="2"/>
         <v>9.6471488095238089E-2</v>
       </c>
-      <c r="H22" s="99">
+      <c r="H22" s="98">
         <f t="shared" si="3"/>
         <v>10524971</v>
       </c>
-      <c r="I22" s="82">
+      <c r="I22" s="81">
         <f t="shared" si="3"/>
         <v>0.62648636904761901</v>
       </c>
-      <c r="J22" s="72"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="14"/>
@@ -1875,26 +1875,26 @@
       <c r="D23" s="10">
         <v>43619</v>
       </c>
-      <c r="E23" s="95">
+      <c r="E23" s="94">
         <v>903168</v>
       </c>
-      <c r="F23" s="95">
+      <c r="F23" s="94">
         <v>1102368</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="37">
         <f t="shared" si="2"/>
         <v>6.561714285714286E-2</v>
       </c>
-      <c r="H23" s="99">
+      <c r="H23" s="98">
         <f t="shared" si="3"/>
         <v>9422603</v>
       </c>
-      <c r="I23" s="82">
+      <c r="I23" s="81">
         <f t="shared" si="3"/>
         <v>0.56086922619047619</v>
       </c>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
@@ -1908,26 +1908,26 @@
       <c r="D24" s="10">
         <v>43711</v>
       </c>
-      <c r="E24" s="94">
+      <c r="E24" s="93">
         <v>1311786</v>
       </c>
-      <c r="F24" s="94">
+      <c r="F24" s="93">
         <v>1468280</v>
       </c>
       <c r="G24" s="25">
         <f t="shared" si="2"/>
         <v>8.7397619047619043E-2</v>
       </c>
-      <c r="H24" s="99">
+      <c r="H24" s="98">
         <f t="shared" ref="H24" si="4">H23-F24</f>
         <v>7954323</v>
       </c>
-      <c r="I24" s="82">
+      <c r="I24" s="81">
         <f t="shared" ref="I24" si="5">I23-G24</f>
         <v>0.47347160714285713</v>
       </c>
-      <c r="J24" s="72"/>
-      <c r="K24" s="73"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="72"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
@@ -1941,26 +1941,26 @@
       <c r="D25" s="10">
         <v>43770</v>
       </c>
-      <c r="E25" s="94">
+      <c r="E25" s="93">
         <v>530148</v>
       </c>
-      <c r="F25" s="94">
+      <c r="F25" s="93">
         <v>597582</v>
       </c>
       <c r="G25" s="25">
         <f t="shared" si="2"/>
         <v>3.557035714285714E-2</v>
       </c>
-      <c r="H25" s="99">
+      <c r="H25" s="98">
         <f t="shared" ref="H25" si="6">H24-F25</f>
         <v>7356741</v>
       </c>
-      <c r="I25" s="82">
+      <c r="I25" s="81">
         <f t="shared" ref="I25" si="7">I24-G25</f>
         <v>0.43790125000000002</v>
       </c>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
@@ -1974,40 +1974,59 @@
       <c r="D26" s="10">
         <v>43782</v>
       </c>
-      <c r="E26" s="94">
+      <c r="E26" s="93">
         <v>559188</v>
       </c>
-      <c r="F26" s="94">
+      <c r="F26" s="93">
         <v>604753</v>
       </c>
       <c r="G26" s="25">
         <f t="shared" si="2"/>
         <v>3.599720238095238E-2</v>
       </c>
-      <c r="H26" s="99">
+      <c r="H26" s="98">
         <f t="shared" ref="H26" si="8">H25-F26</f>
         <v>6751988</v>
       </c>
-      <c r="I26" s="82">
+      <c r="I26" s="81">
         <f t="shared" ref="I26" si="9">I25-G26</f>
         <v>0.40190404761904763</v>
       </c>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="14"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
+      <c r="B27" s="10">
+        <v>43806</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="10">
+        <v>43816</v>
+      </c>
+      <c r="E27" s="93">
+        <v>1278900</v>
+      </c>
+      <c r="F27" s="93">
+        <v>1381640</v>
+      </c>
+      <c r="G27" s="25">
+        <f t="shared" si="2"/>
+        <v>8.2240476190476197E-2</v>
+      </c>
+      <c r="H27" s="98">
+        <f t="shared" ref="H27" si="10">H26-F27</f>
+        <v>5370348</v>
+      </c>
+      <c r="I27" s="81">
+        <f t="shared" ref="I27" si="11">I26-G27</f>
+        <v>0.31966357142857144</v>
+      </c>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
@@ -2015,13 +2034,13 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="22"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="93"/>
       <c r="G28" s="26"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
@@ -2029,25 +2048,25 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="22"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="93"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="13.8" thickBot="1">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="97"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="96"/>
       <c r="G30" s="23"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="91"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="90"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2059,29 +2078,29 @@
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="56">
+      <c r="E31" s="55">
         <f>SUM(E20:E30)</f>
-        <v>5383384</v>
-      </c>
-      <c r="F31" s="55">
+        <v>6662284</v>
+      </c>
+      <c r="F31" s="54">
         <f>SUM(F20:F30)</f>
-        <v>10048012</v>
+        <v>11429652</v>
       </c>
       <c r="G31" s="24">
         <f>SUM(G20:G30)</f>
-        <v>0.59809595238095237</v>
+        <v>0.68033642857142862</v>
       </c>
       <c r="H31" s="20">
         <f>A20-F31</f>
-        <v>6751988</v>
-      </c>
-      <c r="I31" s="29">
+        <v>5370348</v>
+      </c>
+      <c r="I31" s="28">
         <f>1-G31</f>
-        <v>0.40190404761904763</v>
-      </c>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
+        <v>0.31966357142857138</v>
+      </c>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1"/>
@@ -2096,12 +2115,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="102" t="s">
+      <c r="A35" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="102"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2110,10 +2129,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="111" t="s">
+      <c r="A36" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="111"/>
+      <c r="B36" s="110"/>
       <c r="C36" s="11" t="s">
         <v>18</v>
       </c>
@@ -2128,27 +2147,27 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="109">
+      <c r="A37" s="108">
         <f>A20-F31</f>
-        <v>6751988</v>
-      </c>
-      <c r="B37" s="110"/>
-      <c r="C37" s="78">
+        <v>5370348</v>
+      </c>
+      <c r="B37" s="109"/>
+      <c r="C37" s="77">
         <f>1-G31</f>
-        <v>0.40190404761904763</v>
+        <v>0.31966357142857138</v>
       </c>
       <c r="D37" s="21">
         <f>(C37/0.8)*100</f>
-        <v>50.238005952380945</v>
-      </c>
-      <c r="E37" s="85" t="s">
+        <v>39.957946428571425</v>
+      </c>
+      <c r="E37" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="85"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1"/>
@@ -2186,113 +2205,113 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="60"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="108"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="107"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="61"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="62"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="61"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="61"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="62"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="61"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="61"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="62"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="61"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="61"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="63"/>
-      <c r="H45" s="62"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="61"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="61"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
+      <c r="A46" s="60"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="62"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="61"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="61"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="61"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="62"/>
+      <c r="A48" s="60"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="61"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="61"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="62"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="61"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="61"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="63"/>
-      <c r="H50" s="62"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="61"/>
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="104"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="66"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="65"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2300,40 +2319,40 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="60"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="108"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="107"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="61"/>
+      <c r="A53" s="60"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="103"/>
-      <c r="J53" s="103"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="102"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="61"/>
+      <c r="A54" s="60"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="103"/>
-      <c r="J54" s="103"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="102"/>
+      <c r="J54" s="102"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2346,12 +2365,12 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="107"/>
-      <c r="C60" s="108"/>
+      <c r="B60" s="106"/>
+      <c r="C60" s="107"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="107"/>
-      <c r="C67" s="108"/>
+      <c r="B67" s="106"/>
+      <c r="C67" s="107"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/4. XIII-В-28-2-500-4 (Фляга  0,5 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/4. XIII-В-28-2-500-4 (Фляга  0,5 л.).xlsx
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$37</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>№Поз</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>1512.2019</t>
+  </si>
+  <si>
+    <t>Вес, гр. (ном. 405 гр.)</t>
   </si>
 </sst>
 </file>
@@ -175,7 +178,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -272,16 +275,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
@@ -708,7 +701,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -770,12 +763,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -816,9 +803,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -872,8 +856,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -918,11 +902,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -959,6 +943,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -984,6 +974,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1294,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1315,34 +1311,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="16.2" thickBot="1">
@@ -1353,366 +1349,366 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
       <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="43">
+      <c r="A5" s="41">
         <v>1</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46">
+      <c r="D5" s="43"/>
+      <c r="E5" s="43">
         <v>24</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46">
+      <c r="F5" s="97"/>
+      <c r="G5" s="43">
         <f>E5-F5</f>
         <v>24</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="74"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="71"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="47">
+      <c r="A6" s="44">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="84" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
         <v>24</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="98"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G16" si="0">E6-F6</f>
         <v>24</v>
       </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="75"/>
+      <c r="L6" s="72"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="47">
+      <c r="A7" s="44">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="84" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9">
         <v>32</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="98"/>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="75"/>
+      <c r="L7" s="72"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="47">
+      <c r="A8" s="44">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="84" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9">
         <v>32</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="98"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H8" s="53"/>
-      <c r="I8" s="49"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="75"/>
+      <c r="L8" s="72"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="47">
+      <c r="A9" s="44">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="84" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9">
         <v>20</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="98"/>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="75"/>
+      <c r="L9" s="72"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="47">
+      <c r="A10" s="44">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="84" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
         <v>24</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="98"/>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H10" s="53"/>
-      <c r="I10" s="49"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="75"/>
+      <c r="L10" s="72"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="47">
+      <c r="A11" s="44">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="84" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9">
         <v>60</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="98">
         <v>30</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="47"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="75"/>
+      <c r="L11" s="72"/>
       <c r="M11" s="27"/>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A12" s="47">
+      <c r="A12" s="44">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="84" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
         <v>21</v>
       </c>
-      <c r="F12" s="30"/>
+      <c r="F12" s="98"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H12" s="53"/>
-      <c r="I12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="75"/>
+      <c r="L12" s="72"/>
       <c r="M12" s="27"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A13" s="47">
+      <c r="A13" s="44">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="84" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9">
         <v>7</v>
       </c>
-      <c r="F13" s="22"/>
+      <c r="F13" s="98"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H13" s="53" t="s">
+      <c r="H13" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="50"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="75"/>
+      <c r="L13" s="72"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1">
-      <c r="A14" s="47">
+      <c r="A14" s="44">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="84" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
         <v>45</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="98">
         <v>10</v>
       </c>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="H14" s="53"/>
-      <c r="I14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="47"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="75"/>
+      <c r="L14" s="72"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1">
-      <c r="A15" s="47">
+      <c r="A15" s="44">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="84" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="12">
         <v>60</v>
       </c>
-      <c r="F15" s="22"/>
+      <c r="F15" s="98"/>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H15" s="53"/>
-      <c r="I15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="75"/>
+      <c r="L15" s="72"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A16" s="47">
+      <c r="A16" s="44">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="86"/>
+      <c r="C16" s="83"/>
       <c r="D16" s="9"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="22"/>
+      <c r="F16" s="98"/>
       <c r="G16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="53"/>
-      <c r="I16" s="82"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="79"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="75"/>
+      <c r="L16" s="72"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="67"/>
-      <c r="B17" s="66"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1724,7 +1720,7 @@
     </row>
     <row r="18" spans="1:12" ht="16.2" thickBot="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="65" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="13"/>
@@ -1734,100 +1730,102 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
     </row>
     <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="41" t="s">
+      <c r="H19" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="42" t="s">
+      <c r="I19" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
+      <c r="J19" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="76">
+      <c r="A20" s="73">
         <f>E5*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91">
+      <c r="B20" s="75"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88">
         <v>3695000</v>
       </c>
-      <c r="G20" s="37">
-        <f t="shared" ref="G20:G27" si="2">F20/A$20</f>
+      <c r="G20" s="35">
+        <f t="shared" ref="G20:G28" si="2">F20/A$20</f>
         <v>0.21994047619047619</v>
       </c>
-      <c r="H20" s="97">
+      <c r="H20" s="94">
         <f>A20-F20</f>
         <v>13105000</v>
       </c>
-      <c r="I20" s="81">
+      <c r="I20" s="78">
         <f>1-G20</f>
         <v>0.78005952380952381</v>
       </c>
-      <c r="J20" s="71"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A21" s="47"/>
-      <c r="B21" s="79">
+      <c r="A21" s="44"/>
+      <c r="B21" s="76">
         <v>43500</v>
       </c>
-      <c r="C21" s="79">
+      <c r="C21" s="76">
         <v>43507</v>
       </c>
-      <c r="D21" s="79">
+      <c r="D21" s="76">
         <v>43508</v>
       </c>
-      <c r="E21" s="92">
+      <c r="E21" s="89">
         <v>695016</v>
       </c>
-      <c r="F21" s="92">
+      <c r="F21" s="89">
         <v>959308</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="35">
         <f t="shared" si="2"/>
         <v>5.7101666666666669E-2</v>
       </c>
-      <c r="H21" s="98">
-        <f t="shared" ref="H21:I23" si="3">H20-F21</f>
+      <c r="H21" s="95">
+        <f t="shared" ref="H21:J23" si="3">H20-F21</f>
         <v>12145692</v>
       </c>
-      <c r="I21" s="81">
+      <c r="I21" s="78">
         <f t="shared" si="3"/>
         <v>0.7229578571428571</v>
       </c>
-      <c r="J21" s="1"/>
+      <c r="J21" s="110"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
@@ -1842,27 +1840,27 @@
       <c r="D22" s="10">
         <v>43570</v>
       </c>
-      <c r="E22" s="93">
+      <c r="E22" s="90">
         <v>1384078</v>
       </c>
-      <c r="F22" s="93">
+      <c r="F22" s="90">
         <v>1620721</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="35">
         <f t="shared" si="2"/>
         <v>9.6471488095238089E-2</v>
       </c>
-      <c r="H22" s="98">
+      <c r="H22" s="95">
         <f t="shared" si="3"/>
         <v>10524971</v>
       </c>
-      <c r="I22" s="81">
+      <c r="I22" s="78">
         <f t="shared" si="3"/>
         <v>0.62648636904761901</v>
       </c>
-      <c r="J22" s="71"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="14"/>
@@ -1875,26 +1873,26 @@
       <c r="D23" s="10">
         <v>43619</v>
       </c>
-      <c r="E23" s="94">
+      <c r="E23" s="91">
         <v>903168</v>
       </c>
-      <c r="F23" s="94">
+      <c r="F23" s="91">
         <v>1102368</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="35">
         <f t="shared" si="2"/>
         <v>6.561714285714286E-2</v>
       </c>
-      <c r="H23" s="98">
+      <c r="H23" s="95">
         <f t="shared" si="3"/>
         <v>9422603</v>
       </c>
-      <c r="I23" s="81">
+      <c r="I23" s="78">
         <f t="shared" si="3"/>
         <v>0.56086922619047619</v>
       </c>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="68"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
@@ -1908,26 +1906,26 @@
       <c r="D24" s="10">
         <v>43711</v>
       </c>
-      <c r="E24" s="93">
+      <c r="E24" s="90">
         <v>1311786</v>
       </c>
-      <c r="F24" s="93">
+      <c r="F24" s="90">
         <v>1468280</v>
       </c>
       <c r="G24" s="25">
         <f t="shared" si="2"/>
         <v>8.7397619047619043E-2</v>
       </c>
-      <c r="H24" s="98">
+      <c r="H24" s="95">
         <f t="shared" ref="H24" si="4">H23-F24</f>
         <v>7954323</v>
       </c>
-      <c r="I24" s="81">
-        <f t="shared" ref="I24" si="5">I23-G24</f>
+      <c r="I24" s="78">
+        <f t="shared" ref="I24:J24" si="5">I23-G24</f>
         <v>0.47347160714285713</v>
       </c>
-      <c r="J24" s="71"/>
-      <c r="K24" s="72"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="69"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
@@ -1941,26 +1939,26 @@
       <c r="D25" s="10">
         <v>43770</v>
       </c>
-      <c r="E25" s="93">
+      <c r="E25" s="90">
         <v>530148</v>
       </c>
-      <c r="F25" s="93">
+      <c r="F25" s="90">
         <v>597582</v>
       </c>
       <c r="G25" s="25">
         <f t="shared" si="2"/>
         <v>3.557035714285714E-2</v>
       </c>
-      <c r="H25" s="98">
+      <c r="H25" s="95">
         <f t="shared" ref="H25" si="6">H24-F25</f>
         <v>7356741</v>
       </c>
-      <c r="I25" s="81">
-        <f t="shared" ref="I25" si="7">I24-G25</f>
+      <c r="I25" s="78">
+        <f t="shared" ref="I25:J25" si="7">I24-G25</f>
         <v>0.43790125000000002</v>
       </c>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="68"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
@@ -1974,26 +1972,26 @@
       <c r="D26" s="10">
         <v>43782</v>
       </c>
-      <c r="E26" s="93">
+      <c r="E26" s="90">
         <v>559188</v>
       </c>
-      <c r="F26" s="93">
+      <c r="F26" s="90">
         <v>604753</v>
       </c>
       <c r="G26" s="25">
         <f t="shared" si="2"/>
         <v>3.599720238095238E-2</v>
       </c>
-      <c r="H26" s="98">
+      <c r="H26" s="95">
         <f t="shared" ref="H26" si="8">H25-F26</f>
         <v>6751988</v>
       </c>
-      <c r="I26" s="81">
-        <f t="shared" ref="I26" si="9">I25-G26</f>
+      <c r="I26" s="78">
+        <f t="shared" ref="I26:J26" si="9">I25-G26</f>
         <v>0.40190404761904763</v>
       </c>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="68"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
@@ -2007,40 +2005,61 @@
       <c r="D27" s="10">
         <v>43816</v>
       </c>
-      <c r="E27" s="93">
+      <c r="E27" s="90">
         <v>1278900</v>
       </c>
-      <c r="F27" s="93">
+      <c r="F27" s="90">
         <v>1381640</v>
       </c>
       <c r="G27" s="25">
         <f t="shared" si="2"/>
         <v>8.2240476190476197E-2</v>
       </c>
-      <c r="H27" s="98">
+      <c r="H27" s="95">
         <f t="shared" ref="H27" si="10">H26-F27</f>
         <v>5370348</v>
       </c>
-      <c r="I27" s="81">
-        <f t="shared" ref="I27" si="11">I26-G27</f>
+      <c r="I27" s="78">
+        <f t="shared" ref="I27:J27" si="11">I26-G27</f>
         <v>0.31966357142857144</v>
       </c>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="68"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="14"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
+      <c r="B28" s="10">
+        <v>43857</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="10">
+        <v>43864</v>
+      </c>
+      <c r="E28" s="91">
+        <v>682263</v>
+      </c>
+      <c r="F28" s="90">
+        <v>746441</v>
+      </c>
+      <c r="G28" s="26">
+        <f t="shared" si="2"/>
+        <v>4.4431011904761904E-2</v>
+      </c>
+      <c r="H28" s="95">
+        <f t="shared" ref="H28" si="12">H27-F28</f>
+        <v>4623907</v>
+      </c>
+      <c r="I28" s="78">
+        <f t="shared" ref="I28:J28" si="13">I27-G28</f>
+        <v>0.27523255952380954</v>
+      </c>
+      <c r="J28" s="110">
+        <v>383</v>
+      </c>
+      <c r="K28" s="68"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
@@ -2048,26 +2067,26 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="22"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="93"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="90"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="68"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="13.8" thickBot="1">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="96"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="93"/>
       <c r="G30" s="23"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="1"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="110"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
@@ -2078,29 +2097,29 @@
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="55">
+      <c r="E31" s="52">
         <f>SUM(E20:E30)</f>
-        <v>6662284</v>
-      </c>
-      <c r="F31" s="54">
+        <v>7344547</v>
+      </c>
+      <c r="F31" s="51">
         <f>SUM(F20:F30)</f>
-        <v>11429652</v>
+        <v>12176093</v>
       </c>
       <c r="G31" s="24">
         <f>SUM(G20:G30)</f>
-        <v>0.68033642857142862</v>
+        <v>0.72476744047619057</v>
       </c>
       <c r="H31" s="20">
         <f>A20-F31</f>
-        <v>5370348</v>
+        <v>4623907</v>
       </c>
       <c r="I31" s="28">
         <f>1-G31</f>
-        <v>0.31966357142857138</v>
-      </c>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
+        <v>0.27523255952380943</v>
+      </c>
+      <c r="J31" s="111"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1"/>
@@ -2115,12 +2134,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="101" t="s">
+      <c r="A35" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2129,10 +2148,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="110" t="s">
+      <c r="A36" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="110"/>
+      <c r="B36" s="109"/>
       <c r="C36" s="11" t="s">
         <v>18</v>
       </c>
@@ -2147,27 +2166,27 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="108">
+      <c r="A37" s="107">
         <f>A20-F31</f>
-        <v>5370348</v>
-      </c>
-      <c r="B37" s="109"/>
-      <c r="C37" s="77">
+        <v>4623907</v>
+      </c>
+      <c r="B37" s="108"/>
+      <c r="C37" s="74">
         <f>1-G31</f>
-        <v>0.31966357142857138</v>
+        <v>0.27523255952380943</v>
       </c>
       <c r="D37" s="21">
         <f>(C37/0.8)*100</f>
-        <v>39.957946428571425</v>
-      </c>
-      <c r="E37" s="84" t="s">
+        <v>34.404069940476177</v>
+      </c>
+      <c r="E37" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="84"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1"/>
@@ -2205,113 +2224,113 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="107"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="105"/>
+      <c r="J41" s="106"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="60"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="61"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="58"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="60"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="61"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="58"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="60"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="61"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="58"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="60"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="61"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="58"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="60"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="61"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="58"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="60"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="63"/>
-      <c r="H47" s="63"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="60"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="61"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="58"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="60"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="61"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="58"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="60"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="61"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="103"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="104"/>
-      <c r="E51" s="65"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="62"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2319,40 +2338,40 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="59"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="106"/>
-      <c r="J52" s="107"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="106"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="60"/>
+      <c r="A53" s="57"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="102"/>
-      <c r="J53" s="102"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="101"/>
+      <c r="J53" s="101"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="60"/>
+      <c r="A54" s="57"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="102"/>
-      <c r="J54" s="102"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="101"/>
+      <c r="J54" s="101"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2365,12 +2384,12 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="106"/>
-      <c r="C60" s="107"/>
+      <c r="B60" s="105"/>
+      <c r="C60" s="106"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="106"/>
-      <c r="C67" s="107"/>
+      <c r="B67" s="105"/>
+      <c r="C67" s="106"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/4. XIII-В-28-2-500-4 (Фляга  0,5 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/4. XIII-В-28-2-500-4 (Фляга  0,5 л.).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>№Поз</t>
   </si>
@@ -322,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -516,19 +516,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -701,7 +688,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -744,9 +731,6 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -781,7 +765,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -796,20 +780,20 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -818,7 +802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -829,7 +813,7 @@
     </xf>
     <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -871,28 +855,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -902,23 +886,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -936,19 +910,25 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -976,11 +956,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1290,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1311,34 +1294,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="16.2" thickBot="1">
@@ -1349,366 +1332,374 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
       <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="32" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="41">
+      <c r="A5" s="40">
         <v>1</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42">
         <v>24</v>
       </c>
-      <c r="F5" s="97"/>
-      <c r="G5" s="43">
+      <c r="F5" s="92">
+        <v>1</v>
+      </c>
+      <c r="G5" s="42">
         <f>E5-F5</f>
-        <v>24</v>
-      </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="71"/>
+        <v>23</v>
+      </c>
+      <c r="H5" s="47"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="70"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="44">
+      <c r="A6" s="43">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="108" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
         <v>24</v>
       </c>
-      <c r="F6" s="98"/>
+      <c r="F6" s="93">
+        <v>1</v>
+      </c>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G16" si="0">E6-F6</f>
-        <v>24</v>
-      </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="H6" s="48"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="72"/>
+      <c r="L6" s="71"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="44">
+      <c r="A7" s="43">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="108" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9">
         <v>32</v>
       </c>
-      <c r="F7" s="98"/>
+      <c r="F7" s="93">
+        <v>1</v>
+      </c>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="46"/>
+        <v>31</v>
+      </c>
+      <c r="H7" s="49"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="72"/>
+      <c r="L7" s="71"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="44">
+      <c r="A8" s="43">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="108" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9">
         <v>32</v>
       </c>
-      <c r="F8" s="98"/>
+      <c r="F8" s="93">
+        <v>1</v>
+      </c>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="46"/>
+        <v>31</v>
+      </c>
+      <c r="H8" s="49"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="72"/>
+      <c r="L8" s="71"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="44">
+      <c r="A9" s="43">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="108" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9">
         <v>20</v>
       </c>
-      <c r="F9" s="98"/>
+      <c r="F9" s="93"/>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="47"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="72"/>
+      <c r="L9" s="71"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="44">
+      <c r="A10" s="43">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="108" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
         <v>24</v>
       </c>
-      <c r="F10" s="98"/>
+      <c r="F10" s="93"/>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H10" s="50"/>
-      <c r="I10" s="46"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="72"/>
+      <c r="L10" s="71"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="44">
+      <c r="A11" s="43">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="108" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9">
         <v>60</v>
       </c>
-      <c r="F11" s="98">
+      <c r="F11" s="93">
         <v>30</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H11" s="50"/>
-      <c r="I11" s="47"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="27"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A12" s="44">
+      <c r="A12" s="43">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="108" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
         <v>21</v>
       </c>
-      <c r="F12" s="98"/>
+      <c r="F12" s="93"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H12" s="50"/>
-      <c r="I12" s="47"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="46"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="27"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="26"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A13" s="44">
+      <c r="A13" s="43">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="108" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9">
         <v>7</v>
       </c>
-      <c r="F13" s="98"/>
+      <c r="F13" s="93"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="47"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="72"/>
+      <c r="L13" s="71"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1">
-      <c r="A14" s="44">
+      <c r="A14" s="43">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="108" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
         <v>45</v>
       </c>
-      <c r="F14" s="98">
-        <v>10</v>
+      <c r="F14" s="93">
+        <v>13</v>
       </c>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="H14" s="50"/>
-      <c r="I14" s="47"/>
+        <v>32</v>
+      </c>
+      <c r="H14" s="49"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="72"/>
+      <c r="L14" s="71"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1">
-      <c r="A15" s="44">
+      <c r="A15" s="43">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="108" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="12">
         <v>60</v>
       </c>
-      <c r="F15" s="98"/>
+      <c r="F15" s="93"/>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H15" s="50"/>
-      <c r="I15" s="47"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="72"/>
+      <c r="L15" s="71"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A16" s="44">
+      <c r="A16" s="43">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="83"/>
+      <c r="C16" s="109"/>
       <c r="D16" s="9"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="98"/>
+      <c r="F16" s="93"/>
       <c r="G16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="50"/>
-      <c r="I16" s="79"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="78"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="72"/>
+      <c r="L16" s="71"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="64"/>
-      <c r="B17" s="63"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1720,7 +1711,7 @@
     </row>
     <row r="18" spans="1:12" ht="16.2" thickBot="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="64" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="13"/>
@@ -1730,102 +1721,102 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
     </row>
     <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="40" t="s">
+      <c r="J19" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="73">
+      <c r="A20" s="72">
         <f>E5*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88">
+      <c r="B20" s="74"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83">
         <v>3695000</v>
       </c>
-      <c r="G20" s="35">
-        <f t="shared" ref="G20:G28" si="2">F20/A$20</f>
+      <c r="G20" s="34">
+        <f t="shared" ref="G20:G29" si="2">F20/A$20</f>
         <v>0.21994047619047619</v>
       </c>
-      <c r="H20" s="94">
+      <c r="H20" s="89">
         <f>A20-F20</f>
         <v>13105000</v>
       </c>
-      <c r="I20" s="78">
+      <c r="I20" s="77">
         <f>1-G20</f>
         <v>0.78005952380952381</v>
       </c>
-      <c r="J20" s="110"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A21" s="44"/>
-      <c r="B21" s="76">
+      <c r="A21" s="43"/>
+      <c r="B21" s="75">
         <v>43500</v>
       </c>
-      <c r="C21" s="76">
+      <c r="C21" s="75">
         <v>43507</v>
       </c>
-      <c r="D21" s="76">
+      <c r="D21" s="75">
         <v>43508</v>
       </c>
-      <c r="E21" s="89">
+      <c r="E21" s="84">
         <v>695016</v>
       </c>
-      <c r="F21" s="89">
+      <c r="F21" s="84">
         <v>959308</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="34">
         <f t="shared" si="2"/>
         <v>5.7101666666666669E-2</v>
       </c>
-      <c r="H21" s="95">
-        <f t="shared" ref="H21:J23" si="3">H20-F21</f>
+      <c r="H21" s="90">
+        <f t="shared" ref="H21:I23" si="3">H20-F21</f>
         <v>12145692</v>
       </c>
-      <c r="I21" s="78">
+      <c r="I21" s="77">
         <f t="shared" si="3"/>
         <v>0.7229578571428571</v>
       </c>
-      <c r="J21" s="110"/>
+      <c r="J21" s="94"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
@@ -1840,27 +1831,27 @@
       <c r="D22" s="10">
         <v>43570</v>
       </c>
-      <c r="E22" s="90">
+      <c r="E22" s="85">
         <v>1384078</v>
       </c>
-      <c r="F22" s="90">
+      <c r="F22" s="85">
         <v>1620721</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22" s="34">
         <f t="shared" si="2"/>
         <v>9.6471488095238089E-2</v>
       </c>
-      <c r="H22" s="95">
+      <c r="H22" s="90">
         <f t="shared" si="3"/>
         <v>10524971</v>
       </c>
-      <c r="I22" s="78">
+      <c r="I22" s="77">
         <f t="shared" si="3"/>
         <v>0.62648636904761901</v>
       </c>
-      <c r="J22" s="110"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="14"/>
@@ -1873,26 +1864,26 @@
       <c r="D23" s="10">
         <v>43619</v>
       </c>
-      <c r="E23" s="91">
+      <c r="E23" s="86">
         <v>903168</v>
       </c>
-      <c r="F23" s="91">
+      <c r="F23" s="86">
         <v>1102368</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="34">
         <f t="shared" si="2"/>
         <v>6.561714285714286E-2</v>
       </c>
-      <c r="H23" s="95">
+      <c r="H23" s="90">
         <f t="shared" si="3"/>
         <v>9422603</v>
       </c>
-      <c r="I23" s="78">
+      <c r="I23" s="77">
         <f t="shared" si="3"/>
         <v>0.56086922619047619</v>
       </c>
-      <c r="J23" s="110"/>
-      <c r="K23" s="68"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="67"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
@@ -1906,26 +1897,26 @@
       <c r="D24" s="10">
         <v>43711</v>
       </c>
-      <c r="E24" s="90">
+      <c r="E24" s="85">
         <v>1311786</v>
       </c>
-      <c r="F24" s="90">
+      <c r="F24" s="85">
         <v>1468280</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="24">
         <f t="shared" si="2"/>
         <v>8.7397619047619043E-2</v>
       </c>
-      <c r="H24" s="95">
+      <c r="H24" s="90">
         <f t="shared" ref="H24" si="4">H23-F24</f>
         <v>7954323</v>
       </c>
-      <c r="I24" s="78">
-        <f t="shared" ref="I24:J24" si="5">I23-G24</f>
+      <c r="I24" s="77">
+        <f t="shared" ref="I24" si="5">I23-G24</f>
         <v>0.47347160714285713</v>
       </c>
-      <c r="J24" s="110"/>
-      <c r="K24" s="69"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="68"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
@@ -1939,26 +1930,26 @@
       <c r="D25" s="10">
         <v>43770</v>
       </c>
-      <c r="E25" s="90">
+      <c r="E25" s="85">
         <v>530148</v>
       </c>
-      <c r="F25" s="90">
+      <c r="F25" s="85">
         <v>597582</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="24">
         <f t="shared" si="2"/>
         <v>3.557035714285714E-2</v>
       </c>
-      <c r="H25" s="95">
+      <c r="H25" s="90">
         <f t="shared" ref="H25" si="6">H24-F25</f>
         <v>7356741</v>
       </c>
-      <c r="I25" s="78">
-        <f t="shared" ref="I25:J25" si="7">I24-G25</f>
+      <c r="I25" s="77">
+        <f t="shared" ref="I25" si="7">I24-G25</f>
         <v>0.43790125000000002</v>
       </c>
-      <c r="J25" s="110"/>
-      <c r="K25" s="68"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="67"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
@@ -1972,26 +1963,26 @@
       <c r="D26" s="10">
         <v>43782</v>
       </c>
-      <c r="E26" s="90">
+      <c r="E26" s="85">
         <v>559188</v>
       </c>
-      <c r="F26" s="90">
+      <c r="F26" s="85">
         <v>604753</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="24">
         <f t="shared" si="2"/>
         <v>3.599720238095238E-2</v>
       </c>
-      <c r="H26" s="95">
+      <c r="H26" s="90">
         <f t="shared" ref="H26" si="8">H25-F26</f>
         <v>6751988</v>
       </c>
-      <c r="I26" s="78">
-        <f t="shared" ref="I26:J26" si="9">I25-G26</f>
+      <c r="I26" s="77">
+        <f t="shared" ref="I26" si="9">I25-G26</f>
         <v>0.40190404761904763</v>
       </c>
-      <c r="J26" s="110"/>
-      <c r="K26" s="68"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="67"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
@@ -2005,26 +1996,26 @@
       <c r="D27" s="10">
         <v>43816</v>
       </c>
-      <c r="E27" s="90">
+      <c r="E27" s="85">
         <v>1278900</v>
       </c>
-      <c r="F27" s="90">
+      <c r="F27" s="85">
         <v>1381640</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="24">
         <f t="shared" si="2"/>
         <v>8.2240476190476197E-2</v>
       </c>
-      <c r="H27" s="95">
+      <c r="H27" s="90">
         <f t="shared" ref="H27" si="10">H26-F27</f>
         <v>5370348</v>
       </c>
-      <c r="I27" s="78">
-        <f t="shared" ref="I27:J27" si="11">I26-G27</f>
+      <c r="I27" s="77">
+        <f t="shared" ref="I27" si="11">I26-G27</f>
         <v>0.31966357142857144</v>
       </c>
-      <c r="J27" s="110"/>
-      <c r="K27" s="68"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="67"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
@@ -2038,55 +2029,76 @@
       <c r="D28" s="10">
         <v>43864</v>
       </c>
-      <c r="E28" s="91">
+      <c r="E28" s="86">
         <v>682263</v>
       </c>
-      <c r="F28" s="90">
+      <c r="F28" s="85">
         <v>746441</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="25">
         <f t="shared" si="2"/>
         <v>4.4431011904761904E-2</v>
       </c>
-      <c r="H28" s="95">
+      <c r="H28" s="90">
         <f t="shared" ref="H28" si="12">H27-F28</f>
         <v>4623907</v>
       </c>
-      <c r="I28" s="78">
-        <f t="shared" ref="I28:J28" si="13">I27-G28</f>
+      <c r="I28" s="77">
+        <f t="shared" ref="I28" si="13">I27-G28</f>
         <v>0.27523255952380954</v>
       </c>
-      <c r="J28" s="110">
+      <c r="J28" s="94">
         <v>383</v>
       </c>
-      <c r="K28" s="68"/>
+      <c r="K28" s="67"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="14"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="68"/>
+      <c r="B29" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="10">
+        <v>43865</v>
+      </c>
+      <c r="D29" s="10">
+        <v>43872</v>
+      </c>
+      <c r="E29" s="86">
+        <v>585648</v>
+      </c>
+      <c r="F29" s="85">
+        <v>611516</v>
+      </c>
+      <c r="G29" s="24">
+        <f t="shared" si="2"/>
+        <v>3.6399761904761907E-2</v>
+      </c>
+      <c r="H29" s="90">
+        <f t="shared" ref="H29" si="14">H28-F29</f>
+        <v>4012391</v>
+      </c>
+      <c r="I29" s="77">
+        <f t="shared" ref="I29" si="15">I28-G29</f>
+        <v>0.23883279761904763</v>
+      </c>
+      <c r="J29" s="94">
+        <v>383</v>
+      </c>
+      <c r="K29" s="67"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="13.8" thickBot="1">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="110"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="94"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
@@ -2097,29 +2109,29 @@
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="52">
+      <c r="E31" s="51">
         <f>SUM(E20:E30)</f>
-        <v>7344547</v>
-      </c>
-      <c r="F31" s="51">
+        <v>7930195</v>
+      </c>
+      <c r="F31" s="50">
         <f>SUM(F20:F30)</f>
-        <v>12176093</v>
-      </c>
-      <c r="G31" s="24">
+        <v>12787609</v>
+      </c>
+      <c r="G31" s="23">
         <f>SUM(G20:G30)</f>
-        <v>0.72476744047619057</v>
+        <v>0.76116720238095248</v>
       </c>
       <c r="H31" s="20">
         <f>A20-F31</f>
-        <v>4623907</v>
-      </c>
-      <c r="I31" s="28">
+        <v>4012391</v>
+      </c>
+      <c r="I31" s="27">
         <f>1-G31</f>
-        <v>0.27523255952380943</v>
-      </c>
-      <c r="J31" s="111"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
+        <v>0.23883279761904752</v>
+      </c>
+      <c r="J31" s="95"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1"/>
@@ -2134,12 +2146,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="100" t="s">
+      <c r="A35" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="100"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="100"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2148,10 +2160,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="109" t="s">
+      <c r="A36" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="109"/>
+      <c r="B36" s="106"/>
       <c r="C36" s="11" t="s">
         <v>18</v>
       </c>
@@ -2166,27 +2178,27 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="107">
+      <c r="A37" s="104">
         <f>A20-F31</f>
-        <v>4623907</v>
-      </c>
-      <c r="B37" s="108"/>
-      <c r="C37" s="74">
+        <v>4012391</v>
+      </c>
+      <c r="B37" s="105"/>
+      <c r="C37" s="73">
         <f>1-G31</f>
-        <v>0.27523255952380943</v>
+        <v>0.23883279761904752</v>
       </c>
       <c r="D37" s="21">
         <f>(C37/0.8)*100</f>
-        <v>34.404069940476177</v>
-      </c>
-      <c r="E37" s="81" t="s">
+        <v>29.854099702380939</v>
+      </c>
+      <c r="E37" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1"/>
@@ -2224,113 +2236,113 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="56"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="106"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="103"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="57"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="58"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="57"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="57"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="58"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="57"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="57"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="58"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="57"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="57"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="58"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="57"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="57"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="58"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="57"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="57"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="57"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="58"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="57"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="57"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="58"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="57"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="57"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
+      <c r="A50" s="56"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="58"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="57"/>
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="102"/>
-      <c r="C51" s="102"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="62"/>
+      <c r="B51" s="99"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="61"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2338,40 +2350,40 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="56"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="105"/>
-      <c r="J52" s="106"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="102"/>
+      <c r="J52" s="103"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="57"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="101"/>
-      <c r="J53" s="101"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="98"/>
+      <c r="J53" s="98"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="57"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="101"/>
-      <c r="J54" s="101"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="98"/>
+      <c r="J54" s="98"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2384,12 +2396,12 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="105"/>
-      <c r="C60" s="106"/>
+      <c r="B60" s="102"/>
+      <c r="C60" s="103"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="105"/>
-      <c r="C67" s="106"/>
+      <c r="B67" s="102"/>
+      <c r="C67" s="103"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/4. XIII-В-28-2-500-4 (Фляга  0,5 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/4. XIII-В-28-2-500-4 (Фляга  0,5 л.).xlsx
@@ -17,7 +17,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$41</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -688,7 +688,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -931,6 +931,21 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -955,15 +970,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1271,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1294,29 +1300,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1381,10 +1387,12 @@
       <c r="B5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="42">
+        <v>24</v>
+      </c>
       <c r="E5" s="42">
         <v>24</v>
       </c>
@@ -1409,10 +1417,12 @@
       <c r="B6" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9">
+        <v>24</v>
+      </c>
       <c r="E6" s="9">
         <v>24</v>
       </c>
@@ -1437,19 +1447,21 @@
       <c r="B7" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="9">
+        <v>32</v>
+      </c>
       <c r="E7" s="9">
         <v>32</v>
       </c>
       <c r="F7" s="93">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H7" s="49"/>
       <c r="I7" s="45"/>
@@ -1465,10 +1477,12 @@
       <c r="B8" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="9">
+        <v>32</v>
+      </c>
       <c r="E8" s="9">
         <v>32</v>
       </c>
@@ -1493,10 +1507,12 @@
       <c r="B9" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="9">
+        <v>20</v>
+      </c>
       <c r="E9" s="9">
         <v>20</v>
       </c>
@@ -1519,10 +1535,12 @@
       <c r="B10" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="108" t="s">
+      <c r="C10" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9">
+        <v>24</v>
+      </c>
       <c r="E10" s="9">
         <v>24</v>
       </c>
@@ -1545,19 +1563,21 @@
       <c r="B11" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="9">
+        <v>60</v>
+      </c>
       <c r="E11" s="9">
         <v>60</v>
       </c>
       <c r="F11" s="93">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H11" s="49"/>
       <c r="I11" s="46"/>
@@ -1574,10 +1594,12 @@
       <c r="B12" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="9">
+        <v>21</v>
+      </c>
       <c r="E12" s="9">
         <v>21</v>
       </c>
@@ -1601,10 +1623,12 @@
       <c r="B13" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="9">
+        <v>7</v>
+      </c>
       <c r="E13" s="9">
         <v>7</v>
       </c>
@@ -1629,10 +1653,12 @@
       <c r="B14" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="9">
+        <v>50</v>
+      </c>
       <c r="E14" s="9">
         <v>45</v>
       </c>
@@ -1657,10 +1683,12 @@
       <c r="B15" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="9">
+        <v>60</v>
+      </c>
       <c r="E15" s="12">
         <v>60</v>
       </c>
@@ -1683,7 +1711,7 @@
       <c r="B16" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="109"/>
+      <c r="C16" s="98"/>
       <c r="D16" s="9"/>
       <c r="E16" s="12"/>
       <c r="F16" s="93"/>
@@ -1772,7 +1800,7 @@
         <v>3695000</v>
       </c>
       <c r="G20" s="34">
-        <f t="shared" ref="G20:G29" si="2">F20/A$20</f>
+        <f t="shared" ref="G20:G30" si="2">F20/A$20</f>
         <v>0.21994047619047619</v>
       </c>
       <c r="H20" s="89">
@@ -2088,146 +2116,165 @@
       <c r="K29" s="67"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="13.8" thickBot="1">
+    <row r="30" spans="1:12">
       <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="1"/>
+      <c r="B30" s="16">
+        <v>43902</v>
+      </c>
+      <c r="C30" s="16">
+        <v>43916</v>
+      </c>
+      <c r="D30" s="16">
+        <v>43920</v>
+      </c>
+      <c r="E30" s="87">
+        <v>2200086</v>
+      </c>
+      <c r="F30" s="88">
+        <v>2291281</v>
+      </c>
+      <c r="G30" s="22">
+        <f t="shared" si="2"/>
+        <v>0.1363857738095238</v>
+      </c>
+      <c r="H30" s="90">
+        <f t="shared" ref="H30" si="16">H29-F30</f>
+        <v>1721110</v>
+      </c>
+      <c r="I30" s="77">
+        <f t="shared" ref="I30" si="17">I29-G30</f>
+        <v>0.10244702380952384</v>
+      </c>
+      <c r="J30" s="94">
+        <v>384</v>
+      </c>
+      <c r="K30" s="67"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A31" s="17" t="s">
+    <row r="31" spans="1:12">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" ht="13.8" thickBot="1">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" ht="13.8" thickBot="1">
+      <c r="A35" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="51">
-        <f>SUM(E20:E30)</f>
-        <v>7930195</v>
-      </c>
-      <c r="F31" s="50">
-        <f>SUM(F20:F30)</f>
-        <v>12787609</v>
-      </c>
-      <c r="G31" s="23">
-        <f>SUM(G20:G30)</f>
-        <v>0.76116720238095248</v>
-      </c>
-      <c r="H31" s="20">
-        <f>A20-F31</f>
-        <v>4012391</v>
-      </c>
-      <c r="I31" s="27">
-        <f>1-G31</f>
-        <v>0.23883279761904752</v>
-      </c>
-      <c r="J31" s="95"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="97" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="97"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="106" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="106"/>
-      <c r="C36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="104">
-        <f>A20-F31</f>
-        <v>4012391</v>
-      </c>
-      <c r="B37" s="105"/>
-      <c r="C37" s="73">
-        <f>1-G31</f>
-        <v>0.23883279761904752</v>
-      </c>
-      <c r="D37" s="21">
-        <f>(C37/0.8)*100</f>
-        <v>29.854099702380939</v>
-      </c>
-      <c r="E37" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="51">
+        <f>SUM(E20:E34)</f>
+        <v>10130281</v>
+      </c>
+      <c r="F35" s="50">
+        <f>SUM(F20:F34)</f>
+        <v>15078890</v>
+      </c>
+      <c r="G35" s="23">
+        <f>SUM(G20:G34)</f>
+        <v>0.89755297619047625</v>
+      </c>
+      <c r="H35" s="20">
+        <f>A20-F35</f>
+        <v>1721110</v>
+      </c>
+      <c r="I35" s="27">
+        <f>1-G35</f>
+        <v>0.10244702380952375</v>
+      </c>
+      <c r="J35" s="95"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A39" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="102"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="K39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.6">
-      <c r="A40" s="1"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="1"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="111"/>
+      <c r="C40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2235,59 +2282,77 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="55"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="102"/>
-      <c r="J41" s="103"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="56"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
+    <row r="41" spans="1:12">
+      <c r="A41" s="109">
+        <f>A20-F35</f>
+        <v>1721110</v>
+      </c>
+      <c r="B41" s="110"/>
+      <c r="C41" s="73">
+        <f>1-G35</f>
+        <v>0.10244702380952375</v>
+      </c>
+      <c r="D41" s="21">
+        <f>(C41/0.8)*100</f>
+        <v>12.80587797619047</v>
+      </c>
+      <c r="E41" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="80"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="57"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="56"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="57"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="56"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.6">
+      <c r="A44" s="1"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="57"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="56"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="57"/>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="55"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="108"/>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="56"/>
       <c r="B46" s="57"/>
       <c r="C46" s="57"/>
@@ -2297,22 +2362,22 @@
       <c r="G46" s="58"/>
       <c r="H46" s="57"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:12">
       <c r="A47" s="56"/>
       <c r="B47" s="57"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="57"/>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="56"/>
       <c r="B48" s="57"/>
       <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
       <c r="F48" s="57"/>
       <c r="G48" s="58"/>
       <c r="H48" s="57"/>
@@ -2337,88 +2402,128 @@
       <c r="G50" s="58"/>
       <c r="H50" s="57"/>
     </row>
-    <row r="51" spans="1:10" ht="15.6">
-      <c r="A51" s="1"/>
-      <c r="B51" s="99"/>
-      <c r="C51" s="99"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+    <row r="51" spans="1:10">
+      <c r="A51" s="56"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="55"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="102"/>
-      <c r="J52" s="103"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="57"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="56"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="58"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
       <c r="G53" s="58"/>
       <c r="H53" s="57"/>
-      <c r="I53" s="98"/>
-      <c r="J53" s="98"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="56"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="98"/>
-      <c r="J54" s="98"/>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="57"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.6">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="105"/>
+      <c r="E55" s="61"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="B60" s="102"/>
-      <c r="C60" s="103"/>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="102"/>
-      <c r="C67" s="103"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="55"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="107"/>
+      <c r="J56" s="108"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="56"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="103"/>
+      <c r="J57" s="103"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="56"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="103"/>
+      <c r="J58" s="103"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="B64" s="107"/>
+      <c r="C64" s="108"/>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" s="107"/>
+      <c r="C71" s="108"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I57:J57"/>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2427,7 +2532,7 @@
   <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="37" max="12" man="1"/>
+    <brk id="41" max="12" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/4. XIII-В-28-2-500-4 (Фляга  0,5 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/4. XIII-В-28-2-500-4 (Фляга  0,5 л.).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84695C9-7595-4083-998A-578F5737091F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="12" windowWidth="18780" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$41</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -170,7 +178,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
@@ -178,7 +186,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -811,8 +819,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -946,20 +952,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -969,6 +961,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1066,6 +1078,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1101,6 +1130,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1276,53 +1322,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35:F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="101" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="106" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1330,7 +1376,7 @@
       <c r="L2" s="29"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="16.2" thickBot="1">
+    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1342,7 +1388,7 @@
       <c r="K3" s="29"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
+    <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
@@ -1380,14 +1426,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="40">
         <v>1</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="94" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="42">
@@ -1396,7 +1442,7 @@
       <c r="E5" s="42">
         <v>24</v>
       </c>
-      <c r="F5" s="92">
+      <c r="F5" s="90">
         <v>1</v>
       </c>
       <c r="G5" s="42">
@@ -1407,17 +1453,17 @@
       <c r="I5" s="44"/>
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
-      <c r="L5" s="70"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="L5" s="68"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="43">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="95" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="9">
@@ -1426,7 +1472,7 @@
       <c r="E6" s="9">
         <v>24</v>
       </c>
-      <c r="F6" s="93">
+      <c r="F6" s="91">
         <v>1</v>
       </c>
       <c r="G6" s="9">
@@ -1437,17 +1483,17 @@
       <c r="I6" s="45"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="71"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="L6" s="69"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="43">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="95" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="9">
@@ -1456,7 +1502,7 @@
       <c r="E7" s="9">
         <v>32</v>
       </c>
-      <c r="F7" s="93">
+      <c r="F7" s="91">
         <v>8</v>
       </c>
       <c r="G7" s="9">
@@ -1467,17 +1513,17 @@
       <c r="I7" s="45"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="71"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="L7" s="69"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="43">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="95" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="9">
@@ -1486,7 +1532,7 @@
       <c r="E8" s="9">
         <v>32</v>
       </c>
-      <c r="F8" s="93">
+      <c r="F8" s="91">
         <v>1</v>
       </c>
       <c r="G8" s="9">
@@ -1497,17 +1543,17 @@
       <c r="I8" s="45"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="71"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="L8" s="69"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="43">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="95" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="9">
@@ -1516,7 +1562,7 @@
       <c r="E9" s="9">
         <v>20</v>
       </c>
-      <c r="F9" s="93"/>
+      <c r="F9" s="91"/>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1525,17 +1571,17 @@
       <c r="I9" s="46"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="71"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="L9" s="69"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="43">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="95" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="9">
@@ -1544,7 +1590,7 @@
       <c r="E10" s="9">
         <v>24</v>
       </c>
-      <c r="F10" s="93"/>
+      <c r="F10" s="91"/>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1553,17 +1599,17 @@
       <c r="I10" s="45"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="71"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="L10" s="69"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="43">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="95" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="9">
@@ -1572,7 +1618,7 @@
       <c r="E11" s="9">
         <v>60</v>
       </c>
-      <c r="F11" s="93">
+      <c r="F11" s="91">
         <v>60</v>
       </c>
       <c r="G11" s="9">
@@ -1583,18 +1629,18 @@
       <c r="I11" s="46"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="71"/>
+      <c r="L11" s="69"/>
       <c r="M11" s="26"/>
     </row>
-    <row r="12" spans="1:13" ht="17.25" customHeight="1">
+    <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="43">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="95" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="9">
@@ -1603,7 +1649,7 @@
       <c r="E12" s="9">
         <v>21</v>
       </c>
-      <c r="F12" s="93"/>
+      <c r="F12" s="91"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1612,18 +1658,18 @@
       <c r="I12" s="46"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="71"/>
+      <c r="L12" s="69"/>
       <c r="M12" s="26"/>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="43">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="C13" s="95" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="9">
@@ -1632,7 +1678,7 @@
       <c r="E13" s="9">
         <v>7</v>
       </c>
-      <c r="F13" s="93"/>
+      <c r="F13" s="91"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1643,17 +1689,17 @@
       <c r="I13" s="46"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="71"/>
-    </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1">
+      <c r="L13" s="69"/>
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="43">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="95" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="9">
@@ -1662,7 +1708,7 @@
       <c r="E14" s="9">
         <v>45</v>
       </c>
-      <c r="F14" s="93">
+      <c r="F14" s="91">
         <v>13</v>
       </c>
       <c r="G14" s="9">
@@ -1673,17 +1719,17 @@
       <c r="I14" s="46"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="71"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1">
+      <c r="L14" s="69"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="43">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="95" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="9">
@@ -1692,7 +1738,7 @@
       <c r="E15" s="12">
         <v>60</v>
       </c>
-      <c r="F15" s="93"/>
+      <c r="F15" s="91"/>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1701,33 +1747,33 @@
       <c r="I15" s="46"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="71"/>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" customHeight="1">
+      <c r="L15" s="69"/>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="43">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="98"/>
+      <c r="C16" s="96"/>
       <c r="D16" s="9"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="93"/>
+      <c r="F16" s="91"/>
       <c r="G16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="49"/>
-      <c r="I16" s="78"/>
+      <c r="I16" s="76"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="71"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="63"/>
-      <c r="B17" s="62"/>
+      <c r="L16" s="69"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="61"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1737,9 +1783,9 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="16.2" thickBot="1">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="62" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="13"/>
@@ -1749,11 +1795,11 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-    </row>
-    <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+    </row>
+    <row r="19" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>23</v>
       </c>
@@ -1784,71 +1830,71 @@
       <c r="J19" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="72">
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="70">
         <f>E5*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83">
+      <c r="B20" s="72"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81">
         <v>3695000</v>
       </c>
       <c r="G20" s="34">
         <f t="shared" ref="G20:G30" si="2">F20/A$20</f>
         <v>0.21994047619047619</v>
       </c>
-      <c r="H20" s="89">
+      <c r="H20" s="87">
         <f>A20-F20</f>
         <v>13105000</v>
       </c>
-      <c r="I20" s="77">
+      <c r="I20" s="75">
         <f>1-G20</f>
         <v>0.78005952380952381</v>
       </c>
-      <c r="J20" s="94"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-    </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1">
+      <c r="J20" s="92"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+    </row>
+    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="43"/>
-      <c r="B21" s="75">
+      <c r="B21" s="73">
         <v>43500</v>
       </c>
-      <c r="C21" s="75">
+      <c r="C21" s="73">
         <v>43507</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="73">
         <v>43508</v>
       </c>
-      <c r="E21" s="84">
+      <c r="E21" s="82">
         <v>695016</v>
       </c>
-      <c r="F21" s="84">
+      <c r="F21" s="82">
         <v>959308</v>
       </c>
       <c r="G21" s="34">
         <f t="shared" si="2"/>
         <v>5.7101666666666669E-2</v>
       </c>
-      <c r="H21" s="90">
+      <c r="H21" s="88">
         <f t="shared" ref="H21:I23" si="3">H20-F21</f>
         <v>12145692</v>
       </c>
-      <c r="I21" s="77">
+      <c r="I21" s="75">
         <f t="shared" si="3"/>
         <v>0.7229578571428571</v>
       </c>
-      <c r="J21" s="94"/>
+      <c r="J21" s="92"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1">
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="10">
         <v>43559</v>
@@ -1859,29 +1905,29 @@
       <c r="D22" s="10">
         <v>43570</v>
       </c>
-      <c r="E22" s="85">
+      <c r="E22" s="83">
         <v>1384078</v>
       </c>
-      <c r="F22" s="85">
+      <c r="F22" s="83">
         <v>1620721</v>
       </c>
       <c r="G22" s="34">
         <f t="shared" si="2"/>
         <v>9.6471488095238089E-2</v>
       </c>
-      <c r="H22" s="90">
+      <c r="H22" s="88">
         <f t="shared" si="3"/>
         <v>10524971</v>
       </c>
-      <c r="I22" s="77">
+      <c r="I22" s="75">
         <f t="shared" si="3"/>
         <v>0.62648636904761901</v>
       </c>
-      <c r="J22" s="94"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="J22" s="92"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="10">
         <v>43609</v>
@@ -1892,29 +1938,29 @@
       <c r="D23" s="10">
         <v>43619</v>
       </c>
-      <c r="E23" s="86">
+      <c r="E23" s="84">
         <v>903168</v>
       </c>
-      <c r="F23" s="86">
+      <c r="F23" s="84">
         <v>1102368</v>
       </c>
       <c r="G23" s="34">
         <f t="shared" si="2"/>
         <v>6.561714285714286E-2</v>
       </c>
-      <c r="H23" s="90">
+      <c r="H23" s="88">
         <f t="shared" si="3"/>
         <v>9422603</v>
       </c>
-      <c r="I23" s="77">
+      <c r="I23" s="75">
         <f t="shared" si="3"/>
         <v>0.56086922619047619</v>
       </c>
-      <c r="J23" s="94"/>
-      <c r="K23" s="67"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="65"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="10">
         <v>43697</v>
@@ -1925,29 +1971,29 @@
       <c r="D24" s="10">
         <v>43711</v>
       </c>
-      <c r="E24" s="85">
+      <c r="E24" s="83">
         <v>1311786</v>
       </c>
-      <c r="F24" s="85">
+      <c r="F24" s="83">
         <v>1468280</v>
       </c>
       <c r="G24" s="24">
         <f t="shared" si="2"/>
         <v>8.7397619047619043E-2</v>
       </c>
-      <c r="H24" s="90">
+      <c r="H24" s="88">
         <f t="shared" ref="H24" si="4">H23-F24</f>
         <v>7954323</v>
       </c>
-      <c r="I24" s="77">
+      <c r="I24" s="75">
         <f t="shared" ref="I24" si="5">I23-G24</f>
         <v>0.47347160714285713</v>
       </c>
-      <c r="J24" s="94"/>
-      <c r="K24" s="68"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="66"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="10">
         <v>43766</v>
@@ -1958,29 +2004,29 @@
       <c r="D25" s="10">
         <v>43770</v>
       </c>
-      <c r="E25" s="85">
+      <c r="E25" s="83">
         <v>530148</v>
       </c>
-      <c r="F25" s="85">
+      <c r="F25" s="83">
         <v>597582</v>
       </c>
       <c r="G25" s="24">
         <f t="shared" si="2"/>
         <v>3.557035714285714E-2</v>
       </c>
-      <c r="H25" s="90">
+      <c r="H25" s="88">
         <f t="shared" ref="H25" si="6">H24-F25</f>
         <v>7356741</v>
       </c>
-      <c r="I25" s="77">
+      <c r="I25" s="75">
         <f t="shared" ref="I25" si="7">I24-G25</f>
         <v>0.43790125000000002</v>
       </c>
-      <c r="J25" s="94"/>
-      <c r="K25" s="67"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="65"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="10" t="s">
         <v>44</v>
@@ -1991,29 +2037,29 @@
       <c r="D26" s="10">
         <v>43782</v>
       </c>
-      <c r="E26" s="85">
+      <c r="E26" s="83">
         <v>559188</v>
       </c>
-      <c r="F26" s="85">
+      <c r="F26" s="83">
         <v>604753</v>
       </c>
       <c r="G26" s="24">
         <f t="shared" si="2"/>
         <v>3.599720238095238E-2</v>
       </c>
-      <c r="H26" s="90">
+      <c r="H26" s="88">
         <f t="shared" ref="H26" si="8">H25-F26</f>
         <v>6751988</v>
       </c>
-      <c r="I26" s="77">
+      <c r="I26" s="75">
         <f t="shared" ref="I26" si="9">I25-G26</f>
         <v>0.40190404761904763</v>
       </c>
-      <c r="J26" s="94"/>
-      <c r="K26" s="67"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="65"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="10">
         <v>43806</v>
@@ -2024,29 +2070,29 @@
       <c r="D27" s="10">
         <v>43816</v>
       </c>
-      <c r="E27" s="85">
+      <c r="E27" s="83">
         <v>1278900</v>
       </c>
-      <c r="F27" s="85">
+      <c r="F27" s="83">
         <v>1381640</v>
       </c>
       <c r="G27" s="24">
         <f t="shared" si="2"/>
         <v>8.2240476190476197E-2</v>
       </c>
-      <c r="H27" s="90">
+      <c r="H27" s="88">
         <f t="shared" ref="H27" si="10">H26-F27</f>
         <v>5370348</v>
       </c>
-      <c r="I27" s="77">
+      <c r="I27" s="75">
         <f t="shared" ref="I27" si="11">I26-G27</f>
         <v>0.31966357142857144</v>
       </c>
-      <c r="J27" s="94"/>
-      <c r="K27" s="67"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="65"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="10">
         <v>43857</v>
@@ -2057,31 +2103,31 @@
       <c r="D28" s="10">
         <v>43864</v>
       </c>
-      <c r="E28" s="86">
+      <c r="E28" s="84">
         <v>682263</v>
       </c>
-      <c r="F28" s="85">
+      <c r="F28" s="83">
         <v>746441</v>
       </c>
       <c r="G28" s="25">
         <f t="shared" si="2"/>
         <v>4.4431011904761904E-2</v>
       </c>
-      <c r="H28" s="90">
+      <c r="H28" s="88">
         <f t="shared" ref="H28" si="12">H27-F28</f>
         <v>4623907</v>
       </c>
-      <c r="I28" s="77">
+      <c r="I28" s="75">
         <f t="shared" ref="I28" si="13">I27-G28</f>
         <v>0.27523255952380954</v>
       </c>
-      <c r="J28" s="94">
+      <c r="J28" s="92">
         <v>383</v>
       </c>
-      <c r="K28" s="67"/>
+      <c r="K28" s="65"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="10" t="s">
         <v>44</v>
@@ -2092,31 +2138,31 @@
       <c r="D29" s="10">
         <v>43872</v>
       </c>
-      <c r="E29" s="86">
+      <c r="E29" s="84">
         <v>585648</v>
       </c>
-      <c r="F29" s="85">
+      <c r="F29" s="83">
         <v>611516</v>
       </c>
       <c r="G29" s="24">
         <f t="shared" si="2"/>
         <v>3.6399761904761907E-2</v>
       </c>
-      <c r="H29" s="90">
+      <c r="H29" s="88">
         <f t="shared" ref="H29" si="14">H28-F29</f>
         <v>4012391</v>
       </c>
-      <c r="I29" s="77">
+      <c r="I29" s="75">
         <f t="shared" ref="I29" si="15">I28-G29</f>
         <v>0.23883279761904763</v>
       </c>
-      <c r="J29" s="94">
+      <c r="J29" s="92">
         <v>383</v>
       </c>
-      <c r="K29" s="67"/>
+      <c r="K29" s="65"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16">
         <v>43902</v>
@@ -2127,98 +2173,98 @@
       <c r="D30" s="16">
         <v>43920</v>
       </c>
-      <c r="E30" s="87">
+      <c r="E30" s="85">
         <v>2200086</v>
       </c>
-      <c r="F30" s="88">
+      <c r="F30" s="86">
         <v>2291281</v>
       </c>
       <c r="G30" s="22">
         <f t="shared" si="2"/>
         <v>0.1363857738095238</v>
       </c>
-      <c r="H30" s="90">
+      <c r="H30" s="88">
         <f t="shared" ref="H30" si="16">H29-F30</f>
         <v>1721110</v>
       </c>
-      <c r="I30" s="77">
+      <c r="I30" s="75">
         <f t="shared" ref="I30" si="17">I29-G30</f>
         <v>0.10244702380952384</v>
       </c>
-      <c r="J30" s="94">
+      <c r="J30" s="92">
         <v>384</v>
       </c>
-      <c r="K30" s="67"/>
+      <c r="K30" s="65"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="88"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="86"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="67"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="65"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="88"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="86"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="67"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="65"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="88"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="86"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="67"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="65"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" ht="13.8" thickBot="1">
+    <row r="34" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="88"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="86"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="94"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="92"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" ht="13.8" thickBot="1">
+    <row r="35" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="51">
+      <c r="E35" s="110">
         <f>SUM(E20:E34)</f>
         <v>10130281</v>
       </c>
-      <c r="F35" s="50">
+      <c r="F35" s="111">
         <f>SUM(F20:F34)</f>
         <v>15078890</v>
       </c>
@@ -2234,11 +2280,11 @@
         <f>1-G35</f>
         <v>0.10244702380952375</v>
       </c>
-      <c r="J35" s="95"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="J35" s="93"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2250,13 +2296,13 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A39" s="102" t="s">
+    <row r="39" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="102"/>
-      <c r="C39" s="102"/>
-      <c r="D39" s="102"/>
+      <c r="B39" s="106"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="106"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -2264,11 +2310,11 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="111" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="111"/>
+      <c r="B40" s="103"/>
       <c r="C40" s="11" t="s">
         <v>18</v>
       </c>
@@ -2282,13 +2328,13 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="109">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="101">
         <f>A20-F35</f>
         <v>1721110</v>
       </c>
-      <c r="B41" s="110"/>
-      <c r="C41" s="73">
+      <c r="B41" s="102"/>
+      <c r="C41" s="71">
         <f>1-G35</f>
         <v>0.10244702380952375</v>
       </c>
@@ -2296,16 +2342,16 @@
         <f>(C41/0.8)*100</f>
         <v>12.80587797619047</v>
       </c>
-      <c r="E41" s="80" t="s">
+      <c r="E41" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="78"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2313,7 +2359,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2328,7 +2374,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.6">
+    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2340,157 +2386,157 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="55"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="107"/>
-      <c r="J45" s="108"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="56"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="100"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="54"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="57"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="56"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="57"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="56"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="55"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="54"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="55"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="54"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="57"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="56"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="57"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="56"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="55"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="54"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="55"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="54"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="57"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="56"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="56"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="57"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="56"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="57"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="56"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="55"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="54"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="54"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="55"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="54"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="55"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="54"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="57"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.6">
+      <c r="F54" s="55"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="55"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="104"/>
-      <c r="C55" s="104"/>
-      <c r="D55" s="105"/>
-      <c r="E55" s="61"/>
+      <c r="B55" s="107"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="108"/>
+      <c r="E55" s="59"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="55"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="107"/>
-      <c r="J56" s="108"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="56"/>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="53"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="99"/>
+      <c r="J56" s="100"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="54"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="103"/>
-      <c r="J57" s="103"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="104"/>
+      <c r="J57" s="104"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="54"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="103"/>
-      <c r="J58" s="103"/>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="104"/>
+      <c r="J58" s="104"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2500,19 +2546,24 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="64" spans="1:10">
-      <c r="B64" s="107"/>
-      <c r="C64" s="108"/>
-    </row>
-    <row r="71" spans="2:3">
-      <c r="B71" s="107"/>
-      <c r="C71" s="108"/>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="99"/>
+      <c r="C64" s="100"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71" s="99"/>
+      <c r="C71" s="100"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A40:B40"/>
@@ -2520,11 +2571,6 @@
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="I56:J56"/>
     <mergeCell ref="I57:J57"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2538,12 +2584,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2552,24 +2598,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/4. XIII-В-28-2-500-4 (Фляга  0,5 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/4. XIII-В-28-2-500-4 (Фляга  0,5 л.).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84695C9-7595-4083-998A-578F5737091F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA02B66D-B30D-4644-92EA-30C014831A17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -952,6 +952,26 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -961,26 +981,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1326,7 +1326,7 @@
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35:F35"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1346,29 +1346,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1846,7 +1846,7 @@
         <v>3695000</v>
       </c>
       <c r="G20" s="34">
-        <f t="shared" ref="G20:G30" si="2">F20/A$20</f>
+        <f t="shared" ref="G20:G31" si="2">F20/A$20</f>
         <v>0.21994047619047619</v>
       </c>
       <c r="H20" s="87">
@@ -2199,15 +2199,36 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="92"/>
+      <c r="B31" s="16">
+        <v>43986</v>
+      </c>
+      <c r="C31" s="16">
+        <v>43992</v>
+      </c>
+      <c r="D31" s="16">
+        <v>43993</v>
+      </c>
+      <c r="E31" s="85">
+        <v>1033704</v>
+      </c>
+      <c r="F31" s="86">
+        <v>1070878</v>
+      </c>
+      <c r="G31" s="22">
+        <f t="shared" si="2"/>
+        <v>6.3742738095238088E-2</v>
+      </c>
+      <c r="H31" s="88">
+        <f t="shared" ref="H31" si="18">H30-F31</f>
+        <v>650232</v>
+      </c>
+      <c r="I31" s="75">
+        <f t="shared" ref="I31" si="19">I30-G31</f>
+        <v>3.8704285714285747E-2</v>
+      </c>
+      <c r="J31" s="92">
+        <v>383</v>
+      </c>
       <c r="K31" s="65"/>
       <c r="L31" s="1"/>
     </row>
@@ -2260,25 +2281,25 @@
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="110">
+      <c r="E35" s="99">
         <f>SUM(E20:E34)</f>
-        <v>10130281</v>
-      </c>
-      <c r="F35" s="111">
+        <v>11163985</v>
+      </c>
+      <c r="F35" s="100">
         <f>SUM(F20:F34)</f>
-        <v>15078890</v>
+        <v>16149768</v>
       </c>
       <c r="G35" s="23">
         <f>SUM(G20:G34)</f>
-        <v>0.89755297619047625</v>
+        <v>0.96129571428571436</v>
       </c>
       <c r="H35" s="20">
         <f>A20-F35</f>
-        <v>1721110</v>
+        <v>650232</v>
       </c>
       <c r="I35" s="27">
         <f>1-G35</f>
-        <v>0.10244702380952375</v>
+        <v>3.8704285714285636E-2</v>
       </c>
       <c r="J35" s="93"/>
       <c r="K35" s="67"/>
@@ -2297,12 +2318,12 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="106" t="s">
+      <c r="A39" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="106"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="106"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -2311,10 +2332,10 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="103" t="s">
+      <c r="A40" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="103"/>
+      <c r="B40" s="111"/>
       <c r="C40" s="11" t="s">
         <v>18</v>
       </c>
@@ -2329,18 +2350,18 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="101">
+      <c r="A41" s="109">
         <f>A20-F35</f>
-        <v>1721110</v>
-      </c>
-      <c r="B41" s="102"/>
+        <v>650232</v>
+      </c>
+      <c r="B41" s="110"/>
       <c r="C41" s="71">
         <f>1-G35</f>
-        <v>0.10244702380952375</v>
+        <v>3.8704285714285636E-2</v>
       </c>
       <c r="D41" s="21">
         <f>(C41/0.8)*100</f>
-        <v>12.80587797619047</v>
+        <v>4.838035714285704</v>
       </c>
       <c r="E41" s="78" t="s">
         <v>43</v>
@@ -2395,8 +2416,8 @@
       <c r="F45" s="53"/>
       <c r="G45" s="53"/>
       <c r="H45" s="53"/>
-      <c r="I45" s="99"/>
-      <c r="J45" s="100"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="108"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="54"/>
@@ -2490,9 +2511,9 @@
     </row>
     <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="107"/>
-      <c r="C55" s="107"/>
-      <c r="D55" s="108"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="105"/>
       <c r="E55" s="59"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -2509,8 +2530,8 @@
       <c r="F56" s="53"/>
       <c r="G56" s="53"/>
       <c r="H56" s="53"/>
-      <c r="I56" s="99"/>
-      <c r="J56" s="100"/>
+      <c r="I56" s="107"/>
+      <c r="J56" s="108"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="54"/>
@@ -2521,8 +2542,8 @@
       <c r="F57" s="56"/>
       <c r="G57" s="56"/>
       <c r="H57" s="55"/>
-      <c r="I57" s="104"/>
-      <c r="J57" s="104"/>
+      <c r="I57" s="103"/>
+      <c r="J57" s="103"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="54"/>
@@ -2533,8 +2554,8 @@
       <c r="F58" s="57"/>
       <c r="G58" s="57"/>
       <c r="H58" s="57"/>
-      <c r="I58" s="104"/>
-      <c r="J58" s="104"/>
+      <c r="I58" s="103"/>
+      <c r="J58" s="103"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
@@ -2547,23 +2568,18 @@
       <c r="H59" s="1"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B64" s="99"/>
-      <c r="C64" s="100"/>
+      <c r="B64" s="107"/>
+      <c r="C64" s="108"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B71" s="99"/>
-      <c r="C71" s="100"/>
+      <c r="B71" s="107"/>
+      <c r="C71" s="108"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A40:B40"/>
@@ -2571,6 +2587,11 @@
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="I56:J56"/>
     <mergeCell ref="I57:J57"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/4. XIII-В-28-2-500-4 (Фляга  0,5 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/4. XIII-В-28-2-500-4 (Фляга  0,5 л.).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA02B66D-B30D-4644-92EA-30C014831A17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C952D465-5D5F-4011-83F0-46FA8D5AD34F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>№Поз</t>
   </si>
@@ -330,7 +330,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -528,32 +528,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -696,7 +670,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -773,7 +747,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -788,20 +762,20 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -810,7 +784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -819,7 +793,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -861,28 +835,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -895,10 +869,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -916,60 +887,37 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -981,6 +929,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1323,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1346,29 +1308,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1433,7 +1395,7 @@
       <c r="B5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="92" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="42">
@@ -1442,7 +1404,7 @@
       <c r="E5" s="42">
         <v>24</v>
       </c>
-      <c r="F5" s="90">
+      <c r="F5" s="88">
         <v>1</v>
       </c>
       <c r="G5" s="42">
@@ -1463,7 +1425,7 @@
       <c r="B6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="93" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="9">
@@ -1472,7 +1434,7 @@
       <c r="E6" s="9">
         <v>24</v>
       </c>
-      <c r="F6" s="91">
+      <c r="F6" s="89">
         <v>1</v>
       </c>
       <c r="G6" s="9">
@@ -1493,7 +1455,7 @@
       <c r="B7" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="93" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="9">
@@ -1502,7 +1464,7 @@
       <c r="E7" s="9">
         <v>32</v>
       </c>
-      <c r="F7" s="91">
+      <c r="F7" s="89">
         <v>8</v>
       </c>
       <c r="G7" s="9">
@@ -1523,7 +1485,7 @@
       <c r="B8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="93" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="9">
@@ -1532,7 +1494,7 @@
       <c r="E8" s="9">
         <v>32</v>
       </c>
-      <c r="F8" s="91">
+      <c r="F8" s="89">
         <v>1</v>
       </c>
       <c r="G8" s="9">
@@ -1553,7 +1515,7 @@
       <c r="B9" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="93" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="9">
@@ -1562,7 +1524,7 @@
       <c r="E9" s="9">
         <v>20</v>
       </c>
-      <c r="F9" s="91"/>
+      <c r="F9" s="89"/>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1581,7 +1543,7 @@
       <c r="B10" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="93" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="9">
@@ -1590,7 +1552,7 @@
       <c r="E10" s="9">
         <v>24</v>
       </c>
-      <c r="F10" s="91"/>
+      <c r="F10" s="89"/>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1609,7 +1571,7 @@
       <c r="B11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="93" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="9">
@@ -1618,7 +1580,7 @@
       <c r="E11" s="9">
         <v>60</v>
       </c>
-      <c r="F11" s="91">
+      <c r="F11" s="89">
         <v>60</v>
       </c>
       <c r="G11" s="9">
@@ -1640,7 +1602,7 @@
       <c r="B12" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="93" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="9">
@@ -1649,7 +1611,7 @@
       <c r="E12" s="9">
         <v>21</v>
       </c>
-      <c r="F12" s="91"/>
+      <c r="F12" s="89"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1669,7 +1631,7 @@
       <c r="B13" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="93" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="9">
@@ -1678,7 +1640,7 @@
       <c r="E13" s="9">
         <v>7</v>
       </c>
-      <c r="F13" s="91"/>
+      <c r="F13" s="89"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1699,7 +1661,7 @@
       <c r="B14" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="93" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="9">
@@ -1708,7 +1670,7 @@
       <c r="E14" s="9">
         <v>45</v>
       </c>
-      <c r="F14" s="91">
+      <c r="F14" s="89">
         <v>13</v>
       </c>
       <c r="G14" s="9">
@@ -1729,7 +1691,7 @@
       <c r="B15" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="93" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="9">
@@ -1738,7 +1700,7 @@
       <c r="E15" s="12">
         <v>60</v>
       </c>
-      <c r="F15" s="91"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1757,10 +1719,10 @@
       <c r="B16" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="96"/>
+      <c r="C16" s="94"/>
       <c r="D16" s="9"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="91"/>
+      <c r="F16" s="89"/>
       <c r="G16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1841,15 +1803,15 @@
       <c r="B20" s="72"/>
       <c r="C20" s="74"/>
       <c r="D20" s="72"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81">
+      <c r="E20" s="80"/>
+      <c r="F20" s="80">
         <v>3695000</v>
       </c>
       <c r="G20" s="34">
-        <f t="shared" ref="G20:G31" si="2">F20/A$20</f>
+        <f t="shared" ref="G20:G34" si="2">F20/A$20</f>
         <v>0.21994047619047619</v>
       </c>
-      <c r="H20" s="87">
+      <c r="H20" s="86">
         <f>A20-F20</f>
         <v>13105000</v>
       </c>
@@ -1857,7 +1819,7 @@
         <f>1-G20</f>
         <v>0.78005952380952381</v>
       </c>
-      <c r="J20" s="92"/>
+      <c r="J20" s="90"/>
       <c r="K20" s="57"/>
       <c r="L20" s="57"/>
     </row>
@@ -1872,17 +1834,17 @@
       <c r="D21" s="73">
         <v>43508</v>
       </c>
-      <c r="E21" s="82">
+      <c r="E21" s="81">
         <v>695016</v>
       </c>
-      <c r="F21" s="82">
+      <c r="F21" s="81">
         <v>959308</v>
       </c>
       <c r="G21" s="34">
         <f t="shared" si="2"/>
         <v>5.7101666666666669E-2</v>
       </c>
-      <c r="H21" s="88">
+      <c r="H21" s="87">
         <f t="shared" ref="H21:I23" si="3">H20-F21</f>
         <v>12145692</v>
       </c>
@@ -1890,7 +1852,7 @@
         <f t="shared" si="3"/>
         <v>0.7229578571428571</v>
       </c>
-      <c r="J21" s="92"/>
+      <c r="J21" s="90"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
@@ -1905,17 +1867,17 @@
       <c r="D22" s="10">
         <v>43570</v>
       </c>
-      <c r="E22" s="83">
+      <c r="E22" s="82">
         <v>1384078</v>
       </c>
-      <c r="F22" s="83">
+      <c r="F22" s="82">
         <v>1620721</v>
       </c>
       <c r="G22" s="34">
         <f t="shared" si="2"/>
         <v>9.6471488095238089E-2</v>
       </c>
-      <c r="H22" s="88">
+      <c r="H22" s="87">
         <f t="shared" si="3"/>
         <v>10524971</v>
       </c>
@@ -1923,7 +1885,7 @@
         <f t="shared" si="3"/>
         <v>0.62648636904761901</v>
       </c>
-      <c r="J22" s="92"/>
+      <c r="J22" s="90"/>
       <c r="K22" s="57"/>
       <c r="L22" s="57"/>
     </row>
@@ -1938,17 +1900,17 @@
       <c r="D23" s="10">
         <v>43619</v>
       </c>
-      <c r="E23" s="84">
+      <c r="E23" s="83">
         <v>903168</v>
       </c>
-      <c r="F23" s="84">
+      <c r="F23" s="83">
         <v>1102368</v>
       </c>
       <c r="G23" s="34">
         <f t="shared" si="2"/>
         <v>6.561714285714286E-2</v>
       </c>
-      <c r="H23" s="88">
+      <c r="H23" s="87">
         <f t="shared" si="3"/>
         <v>9422603</v>
       </c>
@@ -1956,7 +1918,7 @@
         <f t="shared" si="3"/>
         <v>0.56086922619047619</v>
       </c>
-      <c r="J23" s="92"/>
+      <c r="J23" s="90"/>
       <c r="K23" s="65"/>
       <c r="L23" s="1"/>
     </row>
@@ -1971,17 +1933,17 @@
       <c r="D24" s="10">
         <v>43711</v>
       </c>
-      <c r="E24" s="83">
+      <c r="E24" s="82">
         <v>1311786</v>
       </c>
-      <c r="F24" s="83">
+      <c r="F24" s="82">
         <v>1468280</v>
       </c>
       <c r="G24" s="24">
         <f t="shared" si="2"/>
         <v>8.7397619047619043E-2</v>
       </c>
-      <c r="H24" s="88">
+      <c r="H24" s="87">
         <f t="shared" ref="H24" si="4">H23-F24</f>
         <v>7954323</v>
       </c>
@@ -1989,7 +1951,7 @@
         <f t="shared" ref="I24" si="5">I23-G24</f>
         <v>0.47347160714285713</v>
       </c>
-      <c r="J24" s="92"/>
+      <c r="J24" s="90"/>
       <c r="K24" s="66"/>
       <c r="L24" s="1"/>
     </row>
@@ -2004,17 +1966,17 @@
       <c r="D25" s="10">
         <v>43770</v>
       </c>
-      <c r="E25" s="83">
+      <c r="E25" s="82">
         <v>530148</v>
       </c>
-      <c r="F25" s="83">
+      <c r="F25" s="82">
         <v>597582</v>
       </c>
       <c r="G25" s="24">
         <f t="shared" si="2"/>
         <v>3.557035714285714E-2</v>
       </c>
-      <c r="H25" s="88">
+      <c r="H25" s="87">
         <f t="shared" ref="H25" si="6">H24-F25</f>
         <v>7356741</v>
       </c>
@@ -2022,7 +1984,7 @@
         <f t="shared" ref="I25" si="7">I24-G25</f>
         <v>0.43790125000000002</v>
       </c>
-      <c r="J25" s="92"/>
+      <c r="J25" s="90"/>
       <c r="K25" s="65"/>
       <c r="L25" s="1"/>
     </row>
@@ -2037,17 +1999,17 @@
       <c r="D26" s="10">
         <v>43782</v>
       </c>
-      <c r="E26" s="83">
+      <c r="E26" s="82">
         <v>559188</v>
       </c>
-      <c r="F26" s="83">
+      <c r="F26" s="82">
         <v>604753</v>
       </c>
       <c r="G26" s="24">
         <f t="shared" si="2"/>
         <v>3.599720238095238E-2</v>
       </c>
-      <c r="H26" s="88">
+      <c r="H26" s="87">
         <f t="shared" ref="H26" si="8">H25-F26</f>
         <v>6751988</v>
       </c>
@@ -2055,7 +2017,7 @@
         <f t="shared" ref="I26" si="9">I25-G26</f>
         <v>0.40190404761904763</v>
       </c>
-      <c r="J26" s="92"/>
+      <c r="J26" s="90"/>
       <c r="K26" s="65"/>
       <c r="L26" s="1"/>
     </row>
@@ -2070,17 +2032,17 @@
       <c r="D27" s="10">
         <v>43816</v>
       </c>
-      <c r="E27" s="83">
+      <c r="E27" s="82">
         <v>1278900</v>
       </c>
-      <c r="F27" s="83">
+      <c r="F27" s="82">
         <v>1381640</v>
       </c>
       <c r="G27" s="24">
         <f t="shared" si="2"/>
         <v>8.2240476190476197E-2</v>
       </c>
-      <c r="H27" s="88">
+      <c r="H27" s="87">
         <f t="shared" ref="H27" si="10">H26-F27</f>
         <v>5370348</v>
       </c>
@@ -2088,7 +2050,7 @@
         <f t="shared" ref="I27" si="11">I26-G27</f>
         <v>0.31966357142857144</v>
       </c>
-      <c r="J27" s="92"/>
+      <c r="J27" s="90"/>
       <c r="K27" s="65"/>
       <c r="L27" s="1"/>
     </row>
@@ -2103,17 +2065,17 @@
       <c r="D28" s="10">
         <v>43864</v>
       </c>
-      <c r="E28" s="84">
+      <c r="E28" s="83">
         <v>682263</v>
       </c>
-      <c r="F28" s="83">
+      <c r="F28" s="82">
         <v>746441</v>
       </c>
       <c r="G28" s="25">
         <f t="shared" si="2"/>
         <v>4.4431011904761904E-2</v>
       </c>
-      <c r="H28" s="88">
+      <c r="H28" s="87">
         <f t="shared" ref="H28" si="12">H27-F28</f>
         <v>4623907</v>
       </c>
@@ -2121,7 +2083,7 @@
         <f t="shared" ref="I28" si="13">I27-G28</f>
         <v>0.27523255952380954</v>
       </c>
-      <c r="J28" s="92">
+      <c r="J28" s="90">
         <v>383</v>
       </c>
       <c r="K28" s="65"/>
@@ -2138,17 +2100,17 @@
       <c r="D29" s="10">
         <v>43872</v>
       </c>
-      <c r="E29" s="84">
+      <c r="E29" s="83">
         <v>585648</v>
       </c>
-      <c r="F29" s="83">
+      <c r="F29" s="82">
         <v>611516</v>
       </c>
       <c r="G29" s="24">
         <f t="shared" si="2"/>
         <v>3.6399761904761907E-2</v>
       </c>
-      <c r="H29" s="88">
+      <c r="H29" s="87">
         <f t="shared" ref="H29" si="14">H28-F29</f>
         <v>4012391</v>
       </c>
@@ -2156,7 +2118,7 @@
         <f t="shared" ref="I29" si="15">I28-G29</f>
         <v>0.23883279761904763</v>
       </c>
-      <c r="J29" s="92">
+      <c r="J29" s="90">
         <v>383</v>
       </c>
       <c r="K29" s="65"/>
@@ -2173,17 +2135,17 @@
       <c r="D30" s="16">
         <v>43920</v>
       </c>
-      <c r="E30" s="85">
+      <c r="E30" s="84">
         <v>2200086</v>
       </c>
-      <c r="F30" s="86">
+      <c r="F30" s="85">
         <v>2291281</v>
       </c>
       <c r="G30" s="22">
         <f t="shared" si="2"/>
         <v>0.1363857738095238</v>
       </c>
-      <c r="H30" s="88">
+      <c r="H30" s="87">
         <f t="shared" ref="H30" si="16">H29-F30</f>
         <v>1721110</v>
       </c>
@@ -2191,7 +2153,7 @@
         <f t="shared" ref="I30" si="17">I29-G30</f>
         <v>0.10244702380952384</v>
       </c>
-      <c r="J30" s="92">
+      <c r="J30" s="90">
         <v>384</v>
       </c>
       <c r="K30" s="65"/>
@@ -2208,17 +2170,17 @@
       <c r="D31" s="16">
         <v>43993</v>
       </c>
-      <c r="E31" s="85">
+      <c r="E31" s="84">
         <v>1033704</v>
       </c>
-      <c r="F31" s="86">
+      <c r="F31" s="85">
         <v>1070878</v>
       </c>
       <c r="G31" s="22">
         <f t="shared" si="2"/>
         <v>6.3742738095238088E-2</v>
       </c>
-      <c r="H31" s="88">
+      <c r="H31" s="87">
         <f t="shared" ref="H31" si="18">H30-F31</f>
         <v>650232</v>
       </c>
@@ -2226,7 +2188,7 @@
         <f t="shared" ref="I31" si="19">I30-G31</f>
         <v>3.8704285714285747E-2</v>
       </c>
-      <c r="J31" s="92">
+      <c r="J31" s="90">
         <v>383</v>
       </c>
       <c r="K31" s="65"/>
@@ -2234,143 +2196,195 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="92"/>
+      <c r="B32" s="16">
+        <v>44040</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="16">
+        <v>44046</v>
+      </c>
+      <c r="E32" s="84">
+        <v>582120</v>
+      </c>
+      <c r="F32" s="85">
+        <v>609476</v>
+      </c>
+      <c r="G32" s="22">
+        <f t="shared" si="2"/>
+        <v>3.6278333333333336E-2</v>
+      </c>
+      <c r="H32" s="87">
+        <f t="shared" ref="H32" si="20">H31-F32</f>
+        <v>40756</v>
+      </c>
+      <c r="I32" s="75">
+        <f t="shared" ref="I32" si="21">I31-G32</f>
+        <v>2.4259523809524106E-3</v>
+      </c>
+      <c r="J32" s="90">
+        <v>383</v>
+      </c>
       <c r="K32" s="65"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="92"/>
+      <c r="B33" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="16">
+        <v>44047</v>
+      </c>
+      <c r="D33" s="16">
+        <v>44070</v>
+      </c>
+      <c r="E33" s="84">
+        <v>603288</v>
+      </c>
+      <c r="F33" s="85">
+        <v>617159</v>
+      </c>
+      <c r="G33" s="22">
+        <f t="shared" si="2"/>
+        <v>3.6735654761904761E-2</v>
+      </c>
+      <c r="H33" s="87">
+        <f t="shared" ref="H33" si="22">H32-F33</f>
+        <v>-576403</v>
+      </c>
+      <c r="I33" s="75">
+        <f t="shared" ref="I33" si="23">I32-G33</f>
+        <v>-3.430970238095235E-2</v>
+      </c>
+      <c r="J33" s="90">
+        <v>383</v>
+      </c>
       <c r="K33" s="65"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="1"/>
+      <c r="B34" s="16">
+        <v>44085</v>
+      </c>
+      <c r="C34" s="16">
+        <v>44095</v>
+      </c>
+      <c r="D34" s="16">
+        <v>44105</v>
+      </c>
+      <c r="E34" s="84">
+        <v>1598684</v>
+      </c>
+      <c r="F34" s="85">
+        <v>1684809</v>
+      </c>
+      <c r="G34" s="22">
+        <f t="shared" si="2"/>
+        <v>0.10028624999999999</v>
+      </c>
+      <c r="H34" s="87">
+        <f t="shared" ref="H34" si="24">H33-F34</f>
+        <v>-2261212</v>
+      </c>
+      <c r="I34" s="75">
+        <f t="shared" ref="I34" si="25">I33-G34</f>
+        <v>-0.13459595238095234</v>
+      </c>
+      <c r="J34" s="90">
+        <v>384</v>
+      </c>
+      <c r="K34" s="65"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="99">
-        <f>SUM(E20:E34)</f>
-        <v>11163985</v>
-      </c>
-      <c r="F35" s="100">
-        <f>SUM(F20:F34)</f>
-        <v>16149768</v>
-      </c>
-      <c r="G35" s="23">
-        <f>SUM(G20:G34)</f>
-        <v>0.96129571428571436</v>
-      </c>
-      <c r="H35" s="20">
-        <f>A20-F35</f>
-        <v>650232</v>
-      </c>
-      <c r="I35" s="27">
-        <f>1-G35</f>
-        <v>3.8704285714285636E-2</v>
-      </c>
-      <c r="J35" s="93"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="67"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="102" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="102"/>
-      <c r="C39" s="102"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="111" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="111"/>
-      <c r="C40" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="109">
-        <f>A20-F35</f>
-        <v>650232</v>
-      </c>
-      <c r="B41" s="110"/>
-      <c r="C41" s="71">
-        <f>1-G35</f>
-        <v>3.8704285714285636E-2</v>
-      </c>
-      <c r="D41" s="21">
-        <f>(C41/0.8)*100</f>
-        <v>4.838035714285704</v>
-      </c>
-      <c r="E41" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="95">
+        <f>SUM(E20:E38)</f>
+        <v>13948077</v>
+      </c>
+      <c r="F39" s="96">
+        <f>SUM(F20:F38)</f>
+        <v>19061212</v>
+      </c>
+      <c r="G39" s="23">
+        <f>SUM(G20:G38)</f>
+        <v>1.1345959523809523</v>
+      </c>
+      <c r="H39" s="20">
+        <f>A20-F39</f>
+        <v>-2261212</v>
+      </c>
+      <c r="I39" s="27">
+        <f>1-G39</f>
+        <v>-0.13459595238095234</v>
+      </c>
+      <c r="J39" s="91"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="67"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
@@ -2379,27 +2393,36 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="104"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="104"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="1"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="101"/>
+      <c r="C44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -2408,56 +2431,74 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="53"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="107"/>
-      <c r="J45" s="108"/>
+      <c r="A45" s="99">
+        <f>A20-F39</f>
+        <v>-2261212</v>
+      </c>
+      <c r="B45" s="100"/>
+      <c r="C45" s="71">
+        <f>1-G39</f>
+        <v>-0.13459595238095234</v>
+      </c>
+      <c r="D45" s="21">
+        <f>(C45/0.8)*100</f>
+        <v>-16.824494047619044</v>
+      </c>
+      <c r="E45" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="78"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="78"/>
+      <c r="I45" s="78"/>
+      <c r="J45" s="78"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="54"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="55"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="55"/>
+      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="54"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="55"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="54"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="55"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="54"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="55"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="97"/>
+      <c r="J49" s="98"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="54"/>
@@ -2472,19 +2513,19 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="54"/>
       <c r="B51" s="55"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="55"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="54"/>
       <c r="B52" s="55"/>
       <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
       <c r="F52" s="55"/>
       <c r="G52" s="56"/>
       <c r="H52" s="55"/>
@@ -2509,97 +2550,137 @@
       <c r="G54" s="56"/>
       <c r="H54" s="55"/>
     </row>
-    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="104"/>
-      <c r="C55" s="104"/>
-      <c r="D55" s="105"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="54"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="53"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="107"/>
-      <c r="J56" s="108"/>
+      <c r="A56" s="54"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="55"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="54"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="56"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
       <c r="G57" s="56"/>
       <c r="H57" s="55"/>
-      <c r="I57" s="103"/>
-      <c r="J57" s="103"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="54"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="103"/>
-      <c r="J58" s="103"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B58" s="55"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="55"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+      <c r="B59" s="105"/>
+      <c r="C59" s="105"/>
+      <c r="D59" s="106"/>
+      <c r="E59" s="59"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B64" s="107"/>
-      <c r="C64" s="108"/>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B71" s="107"/>
-      <c r="C71" s="108"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="53"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="97"/>
+      <c r="J60" s="98"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="54"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="102"/>
+      <c r="J61" s="102"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="54"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="102"/>
+      <c r="J62" s="102"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68" s="97"/>
+      <c r="C68" s="98"/>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B75" s="97"/>
+      <c r="C75" s="98"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I57:J57"/>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="B59:D59"/>
     <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I61:J61"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="41" max="12" man="1"/>
+    <brk id="45" max="12" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
